--- a/WalletFundAddedStatement.xlsx
+++ b/WalletFundAddedStatement.xlsx
@@ -51,10 +51,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="[$-409]dd\-mmm\-yy;@"/>
     <numFmt numFmtId="179" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
   </numFmts>
@@ -89,25 +89,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -126,7 +111,69 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,9 +187,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,23 +203,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -182,37 +212,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,13 +227,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,13 +253,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,7 +271,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,19 +307,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,13 +331,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,19 +343,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,7 +367,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,37 +409,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,25 +421,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,35 +447,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,17 +477,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,11 +514,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,8 +524,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,15 +549,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -567,130 +567,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1058,7 +1058,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1111,25 +1111,25 @@
       </c>
       <c r="C2" s="7">
         <f>SUM(C3:C220)</f>
-        <v>2113715</v>
+        <v>2167566</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(D3:D220)</f>
-        <v>2001820.2</v>
+        <v>2052820.27</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="8">
         <f>SUM(F3:F220)</f>
-        <v>111894.8</v>
+        <v>114745.73</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7">
         <f>SUM(H3:H220)</f>
-        <v>2081893.008</v>
+        <v>2134933.0808</v>
       </c>
       <c r="I2" s="7">
         <f>SUM(I3:I220)</f>
-        <v>31821.992</v>
+        <v>32632.9192</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:9">
@@ -1627,22 +1627,37 @@
         <v>2146</v>
       </c>
     </row>
-    <row r="18" spans="6:9">
-      <c r="F18" s="9" t="str">
+    <row r="18" spans="1:9">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2">
+        <v>26027096</v>
+      </c>
+      <c r="C18" s="9">
+        <v>53851</v>
+      </c>
+      <c r="D18" s="9">
+        <v>51000.07</v>
+      </c>
+      <c r="E18" s="10">
+        <v>44209</v>
+      </c>
+      <c r="F18" s="9">
         <f t="shared" ref="F18:F81" si="4">IF(B18="","",C18-D18)</f>
-        <v/>
-      </c>
-      <c r="G18" s="9" t="str">
+        <v>2850.93</v>
+      </c>
+      <c r="G18" s="9">
         <f t="shared" ref="G18:G81" si="5">IF(B18="","",F18/D18*100)</f>
-        <v/>
-      </c>
-      <c r="H18" s="9" t="str">
+        <v>5.59005115091019</v>
+      </c>
+      <c r="H18" s="9">
         <f t="shared" ref="H18:H81" si="6">IF(B18="","",D18*1.04)</f>
-        <v/>
-      </c>
-      <c r="I18" s="9" t="str">
+        <v>53040.0728</v>
+      </c>
+      <c r="I18" s="9">
         <f t="shared" ref="I18:I81" si="7">IF(B18="","",C18-H18)</f>
-        <v/>
+        <v>810.927199999998</v>
       </c>
     </row>
     <row r="19" spans="5:9">
@@ -5088,199 +5103,199 @@
     </row>
     <row r="210" spans="6:9">
       <c r="F210" s="9" t="str">
-        <f>IF(B210="","",C210-D210)</f>
+        <f t="shared" ref="F210:F220" si="16">IF(B210="","",C210-D210)</f>
         <v/>
       </c>
       <c r="G210" s="9" t="str">
-        <f>IF(B210="","",F210/D210*100)</f>
+        <f t="shared" ref="G210:G220" si="17">IF(B210="","",F210/D210*100)</f>
         <v/>
       </c>
       <c r="H210" s="9" t="str">
-        <f>IF(B210="","",D210*1.04)</f>
+        <f t="shared" ref="H210:H220" si="18">IF(B210="","",D210*1.04)</f>
         <v/>
       </c>
       <c r="I210" s="9" t="str">
-        <f>IF(B210="","",C210-H210)</f>
+        <f t="shared" ref="I210:I220" si="19">IF(B210="","",C210-H210)</f>
         <v/>
       </c>
     </row>
     <row r="211" spans="6:9">
       <c r="F211" s="9" t="str">
-        <f>IF(B211="","",C211-D211)</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G211" s="9" t="str">
-        <f>IF(B211="","",F211/D211*100)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H211" s="9" t="str">
-        <f>IF(B211="","",D211*1.04)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I211" s="9" t="str">
-        <f>IF(B211="","",C211-H211)</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="212" spans="6:9">
       <c r="F212" s="9" t="str">
-        <f>IF(B212="","",C212-D212)</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G212" s="9" t="str">
-        <f>IF(B212="","",F212/D212*100)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H212" s="9" t="str">
-        <f>IF(B212="","",D212*1.04)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I212" s="9" t="str">
-        <f>IF(B212="","",C212-H212)</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="213" spans="6:9">
       <c r="F213" s="9" t="str">
-        <f>IF(B213="","",C213-D213)</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G213" s="9" t="str">
-        <f>IF(B213="","",F213/D213*100)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H213" s="9" t="str">
-        <f>IF(B213="","",D213*1.04)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I213" s="9" t="str">
-        <f>IF(B213="","",C213-H213)</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="214" spans="6:9">
       <c r="F214" s="9" t="str">
-        <f>IF(B214="","",C214-D214)</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G214" s="9" t="str">
-        <f>IF(B214="","",F214/D214*100)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H214" s="9" t="str">
-        <f>IF(B214="","",D214*1.04)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I214" s="9" t="str">
-        <f>IF(B214="","",C214-H214)</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="215" spans="6:9">
       <c r="F215" s="9" t="str">
-        <f>IF(B215="","",C215-D215)</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G215" s="9" t="str">
-        <f>IF(B215="","",F215/D215*100)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H215" s="9" t="str">
-        <f>IF(B215="","",D215*1.04)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I215" s="9" t="str">
-        <f>IF(B215="","",C215-H215)</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="216" spans="6:9">
       <c r="F216" s="9" t="str">
-        <f>IF(B216="","",C216-D216)</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G216" s="9" t="str">
-        <f>IF(B216="","",F216/D216*100)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H216" s="9" t="str">
-        <f>IF(B216="","",D216*1.04)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I216" s="9" t="str">
-        <f>IF(B216="","",C216-H216)</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="217" spans="6:9">
       <c r="F217" s="9" t="str">
-        <f>IF(B217="","",C217-D217)</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G217" s="9" t="str">
-        <f>IF(B217="","",F217/D217*100)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H217" s="9" t="str">
-        <f>IF(B217="","",D217*1.04)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I217" s="9" t="str">
-        <f>IF(B217="","",C217-H217)</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="218" spans="6:9">
       <c r="F218" s="9" t="str">
-        <f>IF(B218="","",C218-D218)</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G218" s="9" t="str">
-        <f>IF(B218="","",F218/D218*100)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H218" s="9" t="str">
-        <f>IF(B218="","",D218*1.04)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I218" s="9" t="str">
-        <f>IF(B218="","",C218-H218)</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="219" spans="6:9">
       <c r="F219" s="9" t="str">
-        <f>IF(B219="","",C219-D219)</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G219" s="9" t="str">
-        <f>IF(B219="","",F219/D219*100)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H219" s="9" t="str">
-        <f>IF(B219="","",D219*1.04)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I219" s="9" t="str">
-        <f>IF(B219="","",C219-H219)</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="220" spans="6:9">
       <c r="F220" s="9" t="str">
-        <f>IF(B220="","",C220-D220)</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G220" s="9" t="str">
-        <f>IF(B220="","",F220/D220*100)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H220" s="9" t="str">
-        <f>IF(B220="","",D220*1.04)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I220" s="9" t="str">
-        <f>IF(B220="","",C220-H220)</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>

--- a/WalletFundAddedStatement.xlsx
+++ b/WalletFundAddedStatement.xlsx
@@ -50,13 +50,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="[$-409]dd\-mmm\-yy;@"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="[$-409]dd\-mmm\-yy;@"/>
-    <numFmt numFmtId="179" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -88,11 +87,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -103,46 +101,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,7 +119,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,24 +142,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -210,9 +172,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,7 +203,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,13 +252,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,25 +306,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,7 +330,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,43 +390,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,37 +414,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,31 +426,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,16 +447,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -473,17 +472,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,8 +503,34 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,23 +538,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,15 +548,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -567,134 +566,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -725,10 +724,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1058,7 +1054,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1111,25 +1107,25 @@
       </c>
       <c r="C2" s="7">
         <f>SUM(C3:C220)</f>
-        <v>2167566</v>
+        <v>2589925</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(D3:D220)</f>
-        <v>2052820.27</v>
+        <v>2452820.39</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="8">
         <f>SUM(F3:F220)</f>
-        <v>114745.73</v>
+        <v>137104.61</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7">
         <f>SUM(H3:H220)</f>
-        <v>2134933.0808</v>
+        <v>2550933.2056</v>
       </c>
       <c r="I2" s="7">
         <f>SUM(I3:I220)</f>
-        <v>32632.9192</v>
+        <v>38991.7944</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:9">
@@ -1660,41 +1656,70 @@
         <v>810.927199999998</v>
       </c>
     </row>
-    <row r="19" spans="5:9">
-      <c r="E19" s="11"/>
-      <c r="F19" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G19" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H19" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I19" s="9" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="6:9">
-      <c r="F20" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G20" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H20" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I20" s="9" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2">
+        <v>26025571</v>
+      </c>
+      <c r="C19" s="9">
+        <v>52795</v>
+      </c>
+      <c r="D19" s="9">
+        <v>49999.89</v>
+      </c>
+      <c r="E19" s="10">
+        <v>44210</v>
+      </c>
+      <c r="F19" s="9">
+        <f t="shared" si="4"/>
+        <v>2795.11</v>
+      </c>
+      <c r="G19" s="9">
+        <f t="shared" si="5"/>
+        <v>5.59023229851106</v>
+      </c>
+      <c r="H19" s="9">
+        <f t="shared" si="6"/>
+        <v>51999.8856</v>
+      </c>
+      <c r="I19" s="9">
+        <f t="shared" si="7"/>
+        <v>795.114399999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2">
+        <v>26040898</v>
+      </c>
+      <c r="C20" s="9">
+        <v>369564</v>
+      </c>
+      <c r="D20" s="9">
+        <v>350000.23</v>
+      </c>
+      <c r="E20" s="10">
+        <v>44212</v>
+      </c>
+      <c r="F20" s="9">
+        <f t="shared" si="4"/>
+        <v>19563.77</v>
+      </c>
+      <c r="G20" s="9">
+        <f t="shared" si="5"/>
+        <v>5.58964489823336</v>
+      </c>
+      <c r="H20" s="9">
+        <f t="shared" si="6"/>
+        <v>364000.2392</v>
+      </c>
+      <c r="I20" s="9">
+        <f t="shared" si="7"/>
+        <v>5563.76079999999</v>
       </c>
     </row>
     <row r="21" spans="6:9">
@@ -1752,8 +1777,8 @@
       </c>
     </row>
     <row r="24" s="2" customFormat="1" spans="3:9">
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
       <c r="F24" s="9" t="str">
         <f t="shared" si="4"/>
         <v/>

--- a/WalletFundAddedStatement.xlsx
+++ b/WalletFundAddedStatement.xlsx
@@ -51,11 +51,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="[$-409]dd\-mmm\-yy;@"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="[$-409]dd\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -87,6 +87,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -94,8 +95,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -109,6 +133,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -117,9 +156,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,7 +195,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -142,30 +203,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -179,53 +224,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,13 +252,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -270,13 +282,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,7 +324,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,13 +360,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,121 +432,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,6 +443,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -457,6 +468,54 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,66 +539,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,15 +548,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -566,130 +566,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -724,7 +724,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1054,7 +1054,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1107,25 +1107,25 @@
       </c>
       <c r="C2" s="7">
         <f>SUM(C3:C220)</f>
-        <v>2589925</v>
+        <v>2801104</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(D3:D220)</f>
-        <v>2452820.39</v>
+        <v>2652819.95</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="8">
         <f>SUM(F3:F220)</f>
-        <v>137104.61</v>
+        <v>148284.05</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7">
         <f>SUM(H3:H220)</f>
-        <v>2550933.2056</v>
+        <v>2758932.748</v>
       </c>
       <c r="I2" s="7">
         <f>SUM(I3:I220)</f>
-        <v>38991.7944</v>
+        <v>42171.252</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:9">
@@ -1722,22 +1722,37 @@
         <v>5563.76079999999</v>
       </c>
     </row>
-    <row r="21" spans="6:9">
-      <c r="F21" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G21" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H21" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I21" s="9" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2">
+        <v>26059479</v>
+      </c>
+      <c r="C21" s="9">
+        <v>211179</v>
+      </c>
+      <c r="D21" s="9">
+        <v>199999.56</v>
+      </c>
+      <c r="E21" s="10">
+        <v>44217</v>
+      </c>
+      <c r="F21" s="9">
+        <f t="shared" si="4"/>
+        <v>11179.44</v>
+      </c>
+      <c r="G21" s="9">
+        <f t="shared" si="5"/>
+        <v>5.58973229741106</v>
+      </c>
+      <c r="H21" s="9">
+        <f t="shared" si="6"/>
+        <v>207999.5424</v>
+      </c>
+      <c r="I21" s="9">
+        <f t="shared" si="7"/>
+        <v>3179.45759999999</v>
       </c>
     </row>
     <row r="22" spans="6:9">

--- a/WalletFundAddedStatement.xlsx
+++ b/WalletFundAddedStatement.xlsx
@@ -51,9 +51,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="[$-409]dd\-mmm\-yy;@"/>
   </numFmts>
@@ -87,7 +87,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -103,6 +102,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -111,7 +118,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,39 +132,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,8 +154,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,6 +200,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -202,32 +223,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -252,7 +252,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -264,85 +372,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,25 +390,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,37 +414,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,17 +446,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -472,26 +461,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,8 +512,34 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,15 +548,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -566,127 +566,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1054,7 +1054,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomLeft" activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1107,25 +1107,25 @@
       </c>
       <c r="C2" s="7">
         <f>SUM(C3:C220)</f>
-        <v>2801104</v>
+        <v>2858122</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(D3:D220)</f>
-        <v>2652819.95</v>
+        <v>2706819.55</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="8">
         <f>SUM(F3:F220)</f>
-        <v>148284.05</v>
+        <v>151302.45</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7">
         <f>SUM(H3:H220)</f>
-        <v>2758932.748</v>
+        <v>2815092.332</v>
       </c>
       <c r="I2" s="7">
         <f>SUM(I3:I220)</f>
-        <v>42171.252</v>
+        <v>43029.668</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:9">
@@ -1755,22 +1755,37 @@
         <v>3179.45759999999</v>
       </c>
     </row>
-    <row r="22" spans="6:9">
-      <c r="F22" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G22" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H22" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I22" s="9" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2">
+        <v>26104766</v>
+      </c>
+      <c r="C22" s="9">
+        <v>57018</v>
+      </c>
+      <c r="D22" s="9">
+        <v>53999.6</v>
+      </c>
+      <c r="E22" s="10">
+        <v>44221</v>
+      </c>
+      <c r="F22" s="9">
+        <f t="shared" si="4"/>
+        <v>3018.4</v>
+      </c>
+      <c r="G22" s="9">
+        <f t="shared" si="5"/>
+        <v>5.58967103460026</v>
+      </c>
+      <c r="H22" s="9">
+        <f t="shared" si="6"/>
+        <v>56159.584</v>
+      </c>
+      <c r="I22" s="9">
+        <f t="shared" si="7"/>
+        <v>858.415999999997</v>
       </c>
     </row>
     <row r="23" spans="6:9">

--- a/WalletFundAddedStatement.xlsx
+++ b/WalletFundAddedStatement.xlsx
@@ -51,11 +51,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="[$-409]dd\-mmm\-yy;@"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="[$-409]dd\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -87,64 +87,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -159,35 +105,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,10 +125,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -224,8 +171,61 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,7 +258,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -270,55 +312,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,91 +330,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,7 +348,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,11 +452,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,17 +530,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,44 +549,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -572,134 +572,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -733,10 +733,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1063,7 +1060,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1116,31 +1113,31 @@
       </c>
       <c r="C2" s="7">
         <f>SUM(C3:C220)</f>
-        <v>2858122</v>
+        <v>3110481</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(D3:D220)</f>
-        <v>2706819.55</v>
+        <v>2945819.04</v>
       </c>
       <c r="E2" s="8">
         <f>C2-D2</f>
-        <v>151302.45</v>
+        <v>164661.959999999</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F3:F220)</f>
-        <v>151302.45</v>
+        <v>164661.96</v>
       </c>
       <c r="G2" s="8">
         <f>C2-H2</f>
-        <v>43029.6680000001</v>
+        <v>46829.1983999996</v>
       </c>
       <c r="H2" s="7">
         <f>SUM(H3:H220)</f>
-        <v>2815092.332</v>
+        <v>3063651.8016</v>
       </c>
       <c r="I2" s="7">
         <f>SUM(I3:I220)</f>
-        <v>43029.668</v>
+        <v>46829.1984</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:9">
@@ -1803,42 +1800,70 @@
         <v>858.415999999997</v>
       </c>
     </row>
-    <row r="23" spans="6:9">
-      <c r="F23" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G23" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H23" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I23" s="10" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" s="2" customFormat="1" spans="3:9">
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="F24" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G24" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H24" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I24" s="10" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2">
+        <v>26124286</v>
+      </c>
+      <c r="C23" s="10">
+        <v>183726</v>
+      </c>
+      <c r="D23" s="10">
+        <v>173999.93</v>
+      </c>
+      <c r="E23" s="11">
+        <v>44224</v>
+      </c>
+      <c r="F23" s="10">
+        <f t="shared" si="4"/>
+        <v>9726.07000000001</v>
+      </c>
+      <c r="G23" s="10">
+        <f t="shared" si="5"/>
+        <v>5.58969765102779</v>
+      </c>
+      <c r="H23" s="10">
+        <f t="shared" si="6"/>
+        <v>180959.9272</v>
+      </c>
+      <c r="I23" s="10">
+        <f t="shared" si="7"/>
+        <v>2766.07279999999</v>
+      </c>
+    </row>
+    <row r="24" s="2" customFormat="1" spans="1:9">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2">
+        <v>26135440</v>
+      </c>
+      <c r="C24" s="10">
+        <v>68633</v>
+      </c>
+      <c r="D24" s="10">
+        <v>64999.56</v>
+      </c>
+      <c r="E24" s="11">
+        <v>44225</v>
+      </c>
+      <c r="F24" s="10">
+        <f t="shared" si="4"/>
+        <v>3633.44</v>
+      </c>
+      <c r="G24" s="10">
+        <f t="shared" si="5"/>
+        <v>5.58994553193899</v>
+      </c>
+      <c r="H24" s="10">
+        <f t="shared" si="6"/>
+        <v>67599.5424</v>
+      </c>
+      <c r="I24" s="10">
+        <f t="shared" si="7"/>
+        <v>1033.45759999999</v>
       </c>
     </row>
     <row r="25" spans="6:9">

--- a/WalletFundAddedStatement.xlsx
+++ b/WalletFundAddedStatement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815"/>
+    <workbookView windowWidth="19815" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,11 +51,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="[$-409]dd\-mmm\-yy;@"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="[$-409]dd\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -88,7 +88,52 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -104,7 +149,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -118,23 +170,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,8 +185,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,7 +216,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -171,61 +224,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,7 +258,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -270,115 +306,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,7 +330,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,7 +360,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,7 +426,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,13 +438,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,6 +449,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -467,11 +476,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -487,30 +502,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,11 +523,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,15 +538,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -572,130 +572,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -733,7 +733,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1058,9 +1058,9 @@
   <dimension ref="A1:I220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomLeft" activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1113,31 +1113,31 @@
       </c>
       <c r="C2" s="7">
         <f>SUM(C3:C220)</f>
-        <v>3110481</v>
+        <v>3222406</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(D3:D220)</f>
-        <v>2945819.04</v>
+        <v>3051818.89</v>
       </c>
       <c r="E2" s="8">
         <f>C2-D2</f>
-        <v>164661.959999999</v>
+        <v>170587.109999999</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F3:F220)</f>
-        <v>164661.96</v>
+        <v>170587.11</v>
       </c>
       <c r="G2" s="8">
         <f>C2-H2</f>
-        <v>46829.1983999996</v>
+        <v>48514.3543999996</v>
       </c>
       <c r="H2" s="7">
         <f>SUM(H3:H220)</f>
-        <v>3063651.8016</v>
+        <v>3173891.6456</v>
       </c>
       <c r="I2" s="7">
         <f>SUM(I3:I220)</f>
-        <v>46829.1984</v>
+        <v>48514.3544</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:9">
@@ -1866,40 +1866,70 @@
         <v>1033.45759999999</v>
       </c>
     </row>
-    <row r="25" spans="6:9">
-      <c r="F25" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G25" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H25" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I25" s="10" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="6:9">
-      <c r="F26" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G26" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H26" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I26" s="10" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2">
+        <v>26155067</v>
+      </c>
+      <c r="C25" s="10">
+        <v>73913</v>
+      </c>
+      <c r="D25" s="10">
+        <v>70000.45</v>
+      </c>
+      <c r="E25" s="11">
+        <v>44228</v>
+      </c>
+      <c r="F25" s="10">
+        <f t="shared" si="4"/>
+        <v>3912.55</v>
+      </c>
+      <c r="G25" s="10">
+        <f t="shared" si="5"/>
+        <v>5.5893212115065</v>
+      </c>
+      <c r="H25" s="10">
+        <f t="shared" si="6"/>
+        <v>72800.468</v>
+      </c>
+      <c r="I25" s="10">
+        <f t="shared" si="7"/>
+        <v>1112.53200000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2">
+        <v>26165120</v>
+      </c>
+      <c r="C26" s="10">
+        <v>38012</v>
+      </c>
+      <c r="D26" s="10">
+        <v>35999.4</v>
+      </c>
+      <c r="E26" s="11">
+        <v>44229</v>
+      </c>
+      <c r="F26" s="10">
+        <f t="shared" si="4"/>
+        <v>2012.6</v>
+      </c>
+      <c r="G26" s="10">
+        <f t="shared" si="5"/>
+        <v>5.59064873303444</v>
+      </c>
+      <c r="H26" s="10">
+        <f t="shared" si="6"/>
+        <v>37439.376</v>
+      </c>
+      <c r="I26" s="10">
+        <f t="shared" si="7"/>
+        <v>572.623999999996</v>
       </c>
     </row>
     <row r="27" spans="6:9">

--- a/WalletFundAddedStatement.xlsx
+++ b/WalletFundAddedStatement.xlsx
@@ -51,11 +51,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="[$-409]dd\-mmm\-yy;@"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="[$-409]dd\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -87,6 +87,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -94,15 +117,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -117,39 +158,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,29 +173,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -194,7 +180,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,7 +195,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -223,9 +209,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,19 +258,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -282,13 +270,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,13 +306,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,7 +348,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,31 +366,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,7 +384,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,7 +396,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,31 +426,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,8 +454,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -472,36 +474,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,6 +497,30 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -539,13 +535,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,10 +554,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -572,130 +572,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -733,7 +733,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1060,7 +1060,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H27" sqref="H27"/>
+      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1113,31 +1113,31 @@
       </c>
       <c r="C2" s="7">
         <f>SUM(C3:C220)</f>
-        <v>3222406</v>
+        <v>3327996</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(D3:D220)</f>
-        <v>3051818.89</v>
+        <v>3151819.67</v>
       </c>
       <c r="E2" s="8">
         <f>C2-D2</f>
-        <v>170587.109999999</v>
+        <v>176176.33</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F3:F220)</f>
-        <v>170587.11</v>
+        <v>176176.33</v>
       </c>
       <c r="G2" s="8">
         <f>C2-H2</f>
-        <v>48514.3543999996</v>
+        <v>50103.5431999997</v>
       </c>
       <c r="H2" s="7">
         <f>SUM(H3:H220)</f>
-        <v>3173891.6456</v>
+        <v>3277892.4568</v>
       </c>
       <c r="I2" s="7">
         <f>SUM(I3:I220)</f>
-        <v>48514.3544</v>
+        <v>50103.5432</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:9">
@@ -1932,22 +1932,37 @@
         <v>572.623999999996</v>
       </c>
     </row>
-    <row r="27" spans="6:9">
-      <c r="F27" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G27" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H27" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I27" s="10" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+    <row r="27" spans="1:9">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2">
+        <v>26175472</v>
+      </c>
+      <c r="C27" s="10">
+        <v>105590</v>
+      </c>
+      <c r="D27" s="10">
+        <v>100000.78</v>
+      </c>
+      <c r="E27" s="11">
+        <v>44229</v>
+      </c>
+      <c r="F27" s="10">
+        <f t="shared" si="4"/>
+        <v>5589.22</v>
+      </c>
+      <c r="G27" s="10">
+        <f t="shared" si="5"/>
+        <v>5.58917640442405</v>
+      </c>
+      <c r="H27" s="10">
+        <f t="shared" si="6"/>
+        <v>104000.8112</v>
+      </c>
+      <c r="I27" s="10">
+        <f t="shared" si="7"/>
+        <v>1589.1888</v>
       </c>
     </row>
     <row r="28" spans="6:9">

--- a/WalletFundAddedStatement.xlsx
+++ b/WalletFundAddedStatement.xlsx
@@ -87,6 +87,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -96,7 +104,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -117,7 +132,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -127,17 +141,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -157,15 +192,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,14 +202,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,7 +217,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -203,29 +225,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,7 +258,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -270,19 +288,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,7 +300,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,31 +348,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,7 +372,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,31 +396,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,7 +420,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,37 +432,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,11 +454,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,6 +476,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -493,15 +520,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -513,24 +531,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,7 +554,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -572,130 +572,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1060,7 +1060,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
+      <selection pane="bottomLeft" activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1113,31 +1113,31 @@
       </c>
       <c r="C2" s="7">
         <f>SUM(C3:C220)</f>
-        <v>3327996</v>
+        <v>3531784</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(D3:D220)</f>
-        <v>3151819.67</v>
+        <v>3344819.98</v>
       </c>
       <c r="E2" s="8">
         <f>C2-D2</f>
-        <v>176176.33</v>
+        <v>186964.02</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F3:F220)</f>
-        <v>176176.33</v>
+        <v>186964.02</v>
       </c>
       <c r="G2" s="8">
         <f>C2-H2</f>
-        <v>50103.5431999997</v>
+        <v>53171.2207999998</v>
       </c>
       <c r="H2" s="7">
         <f>SUM(H3:H220)</f>
-        <v>3277892.4568</v>
+        <v>3478612.7792</v>
       </c>
       <c r="I2" s="7">
         <f>SUM(I3:I220)</f>
-        <v>50103.5432</v>
+        <v>53171.2208</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:9">
@@ -1965,22 +1965,37 @@
         <v>1589.1888</v>
       </c>
     </row>
-    <row r="28" spans="6:9">
-      <c r="F28" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G28" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H28" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I28" s="10" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+    <row r="28" spans="1:9">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2">
+        <v>26201594</v>
+      </c>
+      <c r="C28" s="10">
+        <v>203788</v>
+      </c>
+      <c r="D28" s="10">
+        <v>193000.31</v>
+      </c>
+      <c r="E28" s="11">
+        <v>44232</v>
+      </c>
+      <c r="F28" s="10">
+        <f t="shared" si="4"/>
+        <v>10787.69</v>
+      </c>
+      <c r="G28" s="10">
+        <f t="shared" si="5"/>
+        <v>5.58946770603633</v>
+      </c>
+      <c r="H28" s="10">
+        <f t="shared" si="6"/>
+        <v>200720.3224</v>
+      </c>
+      <c r="I28" s="10">
+        <f t="shared" si="7"/>
+        <v>3067.6776</v>
       </c>
     </row>
     <row r="29" spans="6:9">

--- a/WalletFundAddedStatement.xlsx
+++ b/WalletFundAddedStatement.xlsx
@@ -51,9 +51,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="[$-409]dd\-mmm\-yy;@"/>
   </numFmts>
@@ -95,6 +95,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -104,14 +112,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,15 +140,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,45 +163,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -200,6 +179,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -208,24 +210,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,7 +258,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -270,25 +336,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,61 +366,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,13 +396,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,7 +414,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,25 +426,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,12 +442,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -449,59 +449,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -535,6 +482,50 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -549,20 +540,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -572,130 +572,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1058,9 +1058,9 @@
   <dimension ref="A1:I220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I22" sqref="I22"/>
+      <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1113,31 +1113,31 @@
       </c>
       <c r="C2" s="7">
         <f>SUM(C3:C220)</f>
-        <v>3531784</v>
+        <v>3676442</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(D3:D220)</f>
-        <v>3344819.98</v>
+        <v>3481820.34</v>
       </c>
       <c r="E2" s="8">
         <f>C2-D2</f>
-        <v>186964.02</v>
+        <v>194621.66</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F3:F220)</f>
-        <v>186964.02</v>
+        <v>194621.66</v>
       </c>
       <c r="G2" s="8">
         <f>C2-H2</f>
-        <v>53171.2207999998</v>
+        <v>55348.8463999997</v>
       </c>
       <c r="H2" s="7">
         <f>SUM(H3:H220)</f>
-        <v>3478612.7792</v>
+        <v>3621093.1536</v>
       </c>
       <c r="I2" s="7">
         <f>SUM(I3:I220)</f>
-        <v>53171.2208</v>
+        <v>55348.8463999999</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:9">
@@ -1998,40 +1998,70 @@
         <v>3067.6776</v>
       </c>
     </row>
-    <row r="29" spans="6:9">
-      <c r="F29" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G29" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H29" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I29" s="10" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="6:9">
-      <c r="F30" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G30" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H30" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I30" s="10" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2">
+        <v>26243521</v>
+      </c>
+      <c r="C29" s="10">
+        <v>111925</v>
+      </c>
+      <c r="D29" s="10">
+        <v>105999.85</v>
+      </c>
+      <c r="E29" s="11">
+        <v>44237</v>
+      </c>
+      <c r="F29" s="10">
+        <f t="shared" si="4"/>
+        <v>5925.14999999999</v>
+      </c>
+      <c r="G29" s="10">
+        <f t="shared" si="5"/>
+        <v>5.58977206099819</v>
+      </c>
+      <c r="H29" s="10">
+        <f t="shared" si="6"/>
+        <v>110239.844</v>
+      </c>
+      <c r="I29" s="10">
+        <f t="shared" si="7"/>
+        <v>1685.15599999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2">
+        <v>26268624</v>
+      </c>
+      <c r="C30" s="10">
+        <v>32733</v>
+      </c>
+      <c r="D30" s="10">
+        <v>31000.51</v>
+      </c>
+      <c r="E30" s="11">
+        <v>44241</v>
+      </c>
+      <c r="F30" s="10">
+        <f t="shared" si="4"/>
+        <v>1732.49</v>
+      </c>
+      <c r="G30" s="10">
+        <f t="shared" si="5"/>
+        <v>5.58858547810988</v>
+      </c>
+      <c r="H30" s="10">
+        <f t="shared" si="6"/>
+        <v>32240.5304</v>
+      </c>
+      <c r="I30" s="10">
+        <f t="shared" si="7"/>
+        <v>492.4696</v>
       </c>
     </row>
     <row r="31" spans="6:9">

--- a/WalletFundAddedStatement.xlsx
+++ b/WalletFundAddedStatement.xlsx
@@ -51,11 +51,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="[$-409]dd\-mmm\-yy;@"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="[$-409]dd\-mmm\-yy;@"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -88,6 +88,65 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -95,8 +154,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -110,59 +208,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -170,16 +215,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -189,43 +226,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,7 +264,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,7 +276,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,19 +396,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,79 +408,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,31 +426,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,13 +444,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,30 +455,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -508,6 +484,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -519,15 +513,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,18 +540,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -578,130 +578,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -742,7 +742,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1069,7 +1069,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I32" sqref="I32"/>
+      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1122,31 +1122,31 @@
       </c>
       <c r="C2" s="7">
         <f>SUM(C3:C220)</f>
-        <v>3947807</v>
+        <v>4085074</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(D3:D220)</f>
-        <v>3738820.03</v>
+        <v>3868820.14</v>
       </c>
       <c r="E2" s="8">
         <f>C2-D2</f>
-        <v>208986.969999999</v>
+        <v>216253.859999999</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F3:F220)</f>
-        <v>208986.97</v>
+        <v>216253.86</v>
       </c>
       <c r="G2" s="10">
         <f>C2-H2</f>
-        <v>59434.1687999996</v>
+        <v>61501.0543999998</v>
       </c>
       <c r="H2" s="7">
         <f>SUM(H3:H220)</f>
-        <v>3888372.8312</v>
+        <v>4023572.9456</v>
       </c>
       <c r="I2" s="10">
         <f>SUM(I3:I220)</f>
-        <v>59434.1687999999</v>
+        <v>61501.0543999999</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:9">
@@ -2139,22 +2139,37 @@
         <v>1986.77119999999</v>
       </c>
     </row>
-    <row r="33" spans="6:9">
-      <c r="F33" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G33" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H33" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I33" s="11" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+    <row r="33" spans="1:9">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2">
+        <v>26309833</v>
+      </c>
+      <c r="C33" s="11">
+        <v>137267</v>
+      </c>
+      <c r="D33" s="11">
+        <v>130000.11</v>
+      </c>
+      <c r="E33" s="12">
+        <v>44246</v>
+      </c>
+      <c r="F33" s="11">
+        <f t="shared" si="4"/>
+        <v>7266.89</v>
+      </c>
+      <c r="G33" s="11">
+        <f t="shared" si="5"/>
+        <v>5.58991065469098</v>
+      </c>
+      <c r="H33" s="11">
+        <f t="shared" si="6"/>
+        <v>135200.1144</v>
+      </c>
+      <c r="I33" s="11">
+        <f t="shared" si="7"/>
+        <v>2066.88560000001</v>
       </c>
     </row>
     <row r="34" spans="6:9">

--- a/WalletFundAddedStatement.xlsx
+++ b/WalletFundAddedStatement.xlsx
@@ -51,11 +51,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="[$-409]dd\-mmm\-yy;@"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="[$-409]dd\-mmm\-yy;@"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -87,16 +87,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -118,29 +124,39 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,7 +172,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,20 +186,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -192,40 +194,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,7 +264,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,7 +336,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,7 +384,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,91 +420,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,49 +438,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,6 +475,45 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -487,17 +526,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,38 +550,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,15 +560,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -578,130 +578,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -742,7 +742,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1067,9 +1067,9 @@
   <dimension ref="A1:I220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
+      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1122,31 +1122,31 @@
       </c>
       <c r="C2" s="7">
         <f>SUM(C3:C220)</f>
-        <v>4085074</v>
+        <v>4232900</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(D3:D220)</f>
-        <v>3868820.14</v>
+        <v>4008821.03</v>
       </c>
       <c r="E2" s="8">
         <f>C2-D2</f>
-        <v>216253.859999999</v>
+        <v>224078.969999999</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F3:F220)</f>
-        <v>216253.86</v>
+        <v>224078.97</v>
       </c>
       <c r="G2" s="10">
         <f>C2-H2</f>
-        <v>61501.0543999998</v>
+        <v>63726.1287999996</v>
       </c>
       <c r="H2" s="7">
         <f>SUM(H3:H220)</f>
-        <v>4023572.9456</v>
+        <v>4169173.8712</v>
       </c>
       <c r="I2" s="10">
         <f>SUM(I3:I220)</f>
-        <v>61501.0543999999</v>
+        <v>63726.1287999999</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:9">
@@ -2172,22 +2172,37 @@
         <v>2066.88560000001</v>
       </c>
     </row>
-    <row r="34" spans="6:9">
-      <c r="F34" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G34" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H34" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I34" s="11" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+    <row r="34" spans="1:9">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2">
+        <v>26304590</v>
+      </c>
+      <c r="C34" s="11">
+        <v>147826</v>
+      </c>
+      <c r="D34" s="11">
+        <v>140000.89</v>
+      </c>
+      <c r="E34" s="12">
+        <v>44248</v>
+      </c>
+      <c r="F34" s="11">
+        <f t="shared" si="4"/>
+        <v>7825.10999999999</v>
+      </c>
+      <c r="G34" s="11">
+        <f t="shared" si="5"/>
+        <v>5.58932875355291</v>
+      </c>
+      <c r="H34" s="11">
+        <f t="shared" si="6"/>
+        <v>145600.9256</v>
+      </c>
+      <c r="I34" s="11">
+        <f t="shared" si="7"/>
+        <v>2225.07439999998</v>
       </c>
     </row>
     <row r="35" spans="6:9">

--- a/WalletFundAddedStatement.xlsx
+++ b/WalletFundAddedStatement.xlsx
@@ -51,11 +51,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="[$-409]dd\-mmm\-yy;@"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="[$-409]dd\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -87,47 +87,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -148,31 +112,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,8 +148,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,16 +217,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,31 +264,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,13 +294,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,31 +336,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,72 +354,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -438,13 +366,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,6 +455,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -497,21 +521,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -526,8 +535,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,29 +555,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -578,130 +578,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -742,7 +742,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1069,7 +1069,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
+      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1122,31 +1122,31 @@
       </c>
       <c r="C2" s="7">
         <f>SUM(C3:C220)</f>
-        <v>4232900</v>
+        <v>4285695</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(D3:D220)</f>
-        <v>4008821.03</v>
+        <v>4058820.92</v>
       </c>
       <c r="E2" s="8">
         <f>C2-D2</f>
-        <v>224078.969999999</v>
+        <v>226874.079999999</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F3:F220)</f>
-        <v>224078.97</v>
+        <v>226874.08</v>
       </c>
       <c r="G2" s="10">
         <f>C2-H2</f>
-        <v>63726.1287999996</v>
+        <v>64521.2431999994</v>
       </c>
       <c r="H2" s="7">
         <f>SUM(H3:H220)</f>
-        <v>4169173.8712</v>
+        <v>4221173.7568</v>
       </c>
       <c r="I2" s="10">
         <f>SUM(I3:I220)</f>
-        <v>63726.1287999999</v>
+        <v>64521.2431999999</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:9">
@@ -2205,22 +2205,37 @@
         <v>2225.07439999998</v>
       </c>
     </row>
-    <row r="35" spans="6:9">
-      <c r="F35" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G35" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H35" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I35" s="11" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+    <row r="35" spans="1:9">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2">
+        <v>26344520</v>
+      </c>
+      <c r="C35" s="11">
+        <v>52795</v>
+      </c>
+      <c r="D35" s="11">
+        <v>49999.89</v>
+      </c>
+      <c r="E35" s="12">
+        <v>44251</v>
+      </c>
+      <c r="F35" s="11">
+        <f t="shared" si="4"/>
+        <v>2795.11</v>
+      </c>
+      <c r="G35" s="11">
+        <f t="shared" si="5"/>
+        <v>5.59023229851106</v>
+      </c>
+      <c r="H35" s="11">
+        <f t="shared" si="6"/>
+        <v>51999.8856</v>
+      </c>
+      <c r="I35" s="11">
+        <f t="shared" si="7"/>
+        <v>795.114399999999</v>
       </c>
     </row>
     <row r="36" spans="6:9">

--- a/WalletFundAddedStatement.xlsx
+++ b/WalletFundAddedStatement.xlsx
@@ -53,9 +53,9 @@
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="[$-409]dd\-mmm\-yy;@"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="[$-409]dd\-mmm\-yy;@"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -87,6 +87,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -96,7 +110,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -111,10 +125,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -125,24 +148,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,16 +164,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -173,14 +188,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,13 +217,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -209,23 +224,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,96 +264,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -366,13 +276,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,19 +324,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,19 +378,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,7 +420,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,30 +458,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -493,15 +469,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,20 +490,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,15 +511,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -578,130 +578,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -742,7 +742,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1067,9 +1067,9 @@
   <dimension ref="A1:I220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1122,31 +1122,31 @@
       </c>
       <c r="C2" s="7">
         <f>SUM(C3:C220)</f>
-        <v>4285695</v>
+        <v>4367949</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(D3:D220)</f>
-        <v>4058820.92</v>
+        <v>4136720.57</v>
       </c>
       <c r="E2" s="8">
         <f>C2-D2</f>
-        <v>226874.079999999</v>
+        <v>231228.429999999</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F3:F220)</f>
-        <v>226874.08</v>
+        <v>231228.43</v>
       </c>
       <c r="G2" s="10">
         <f>C2-H2</f>
-        <v>64521.2431999994</v>
+        <v>65759.6071999995</v>
       </c>
       <c r="H2" s="7">
         <f>SUM(H3:H220)</f>
-        <v>4221173.7568</v>
+        <v>4302189.3928</v>
       </c>
       <c r="I2" s="10">
         <f>SUM(I3:I220)</f>
-        <v>64521.2431999999</v>
+        <v>65759.6071999999</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:9">
@@ -2238,40 +2238,70 @@
         <v>795.114399999999</v>
       </c>
     </row>
-    <row r="36" spans="6:9">
-      <c r="F36" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G36" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H36" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I36" s="11" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="6:9">
-      <c r="F37" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G37" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H37" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I37" s="11" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+    <row r="36" spans="1:9">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2">
+        <v>26377889</v>
+      </c>
+      <c r="C36" s="11">
+        <v>42236</v>
+      </c>
+      <c r="D36" s="11">
+        <v>40000.11</v>
+      </c>
+      <c r="E36" s="12">
+        <v>44256</v>
+      </c>
+      <c r="F36" s="11">
+        <f t="shared" si="4"/>
+        <v>2235.89</v>
+      </c>
+      <c r="G36" s="11">
+        <f t="shared" si="5"/>
+        <v>5.58970962829852</v>
+      </c>
+      <c r="H36" s="11">
+        <f t="shared" si="6"/>
+        <v>41600.1144</v>
+      </c>
+      <c r="I36" s="11">
+        <f t="shared" si="7"/>
+        <v>635.885600000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2">
+        <v>26396131</v>
+      </c>
+      <c r="C37" s="11">
+        <v>40018</v>
+      </c>
+      <c r="D37" s="11">
+        <v>37899.54</v>
+      </c>
+      <c r="E37" s="12">
+        <v>44257</v>
+      </c>
+      <c r="F37" s="11">
+        <f t="shared" si="4"/>
+        <v>2118.46</v>
+      </c>
+      <c r="G37" s="11">
+        <f t="shared" si="5"/>
+        <v>5.58967206462136</v>
+      </c>
+      <c r="H37" s="11">
+        <f t="shared" si="6"/>
+        <v>39415.5216</v>
+      </c>
+      <c r="I37" s="11">
+        <f t="shared" si="7"/>
+        <v>602.4784</v>
       </c>
     </row>
     <row r="38" spans="6:9">

--- a/WalletFundAddedStatement.xlsx
+++ b/WalletFundAddedStatement.xlsx
@@ -51,10 +51,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="[$-409]dd\-mmm\-yy;@"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="[$-409]dd\-mmm\-yy;@"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -94,13 +94,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -109,17 +102,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,40 +149,18 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -180,7 +173,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -188,7 +181,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,7 +203,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,13 +226,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,103 +264,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,25 +276,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,7 +294,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,7 +306,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,13 +330,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,17 +458,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,7 +512,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,62 +555,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -578,130 +578,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -742,7 +742,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1067,9 +1067,9 @@
   <dimension ref="A1:I220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
+      <selection pane="bottomLeft" activeCell="C38" sqref="C38:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1122,31 +1122,31 @@
       </c>
       <c r="C2" s="7">
         <f>SUM(C3:C220)</f>
-        <v>4367949</v>
+        <v>4383787</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(D3:D220)</f>
-        <v>4136720.57</v>
+        <v>4151720.24</v>
       </c>
       <c r="E2" s="8">
         <f>C2-D2</f>
-        <v>231228.429999999</v>
+        <v>232066.759999999</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F3:F220)</f>
-        <v>231228.43</v>
+        <v>232066.76</v>
       </c>
       <c r="G2" s="10">
         <f>C2-H2</f>
-        <v>65759.6071999995</v>
+        <v>65997.9503999995</v>
       </c>
       <c r="H2" s="7">
         <f>SUM(H3:H220)</f>
-        <v>4302189.3928</v>
+        <v>4317789.0496</v>
       </c>
       <c r="I2" s="10">
         <f>SUM(I3:I220)</f>
-        <v>65759.6071999999</v>
+        <v>65997.9503999999</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:9">
@@ -2304,22 +2304,37 @@
         <v>602.4784</v>
       </c>
     </row>
-    <row r="38" spans="6:9">
-      <c r="F38" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G38" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H38" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I38" s="11" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+    <row r="38" spans="1:9">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2">
+        <v>26391779</v>
+      </c>
+      <c r="C38" s="11">
+        <v>15838</v>
+      </c>
+      <c r="D38" s="11">
+        <v>14999.67</v>
+      </c>
+      <c r="E38" s="12">
+        <v>44258</v>
+      </c>
+      <c r="F38" s="11">
+        <f t="shared" si="4"/>
+        <v>838.33</v>
+      </c>
+      <c r="G38" s="11">
+        <f t="shared" si="5"/>
+        <v>5.5889896244384</v>
+      </c>
+      <c r="H38" s="11">
+        <f t="shared" si="6"/>
+        <v>15599.6568</v>
+      </c>
+      <c r="I38" s="11">
+        <f t="shared" si="7"/>
+        <v>238.343199999999</v>
       </c>
     </row>
     <row r="39" spans="6:9">

--- a/WalletFundAddedStatement.xlsx
+++ b/WalletFundAddedStatement.xlsx
@@ -51,11 +51,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="[$-409]dd\-mmm\-yy;@"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="[$-409]dd\-mmm\-yy;@"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -87,6 +87,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -94,9 +117,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -110,54 +187,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -172,16 +209,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,43 +226,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,31 +264,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,7 +282,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,7 +330,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,91 +408,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,7 +426,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,13 +438,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,28 +458,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,7 +492,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,46 +525,33 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,15 +560,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -578,130 +578,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -742,7 +742,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1067,9 +1067,9 @@
   <dimension ref="A1:I220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C38" sqref="C38:D38"/>
+      <selection pane="bottomLeft" activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1122,31 +1122,31 @@
       </c>
       <c r="C2" s="7">
         <f>SUM(C3:C220)</f>
-        <v>4383787</v>
+        <v>4487687</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(D3:D220)</f>
-        <v>4151720.24</v>
+        <v>4250120.53</v>
       </c>
       <c r="E2" s="8">
         <f>C2-D2</f>
-        <v>232066.759999999</v>
+        <v>237566.47</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F3:F220)</f>
-        <v>232066.76</v>
+        <v>237566.47</v>
       </c>
       <c r="G2" s="10">
         <f>C2-H2</f>
-        <v>65997.9503999995</v>
+        <v>67561.6487999996</v>
       </c>
       <c r="H2" s="7">
         <f>SUM(H3:H220)</f>
-        <v>4317789.0496</v>
+        <v>4420125.3512</v>
       </c>
       <c r="I2" s="10">
         <f>SUM(I3:I220)</f>
-        <v>65997.9503999999</v>
+        <v>67561.6487999999</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:9">
@@ -2337,22 +2337,37 @@
         <v>238.343199999999</v>
       </c>
     </row>
-    <row r="39" spans="6:9">
-      <c r="F39" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G39" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H39" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I39" s="11" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+    <row r="39" spans="1:9">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2">
+        <v>26422501</v>
+      </c>
+      <c r="C39" s="11">
+        <v>103900</v>
+      </c>
+      <c r="D39" s="11">
+        <v>98400.29</v>
+      </c>
+      <c r="E39" s="12">
+        <v>44259</v>
+      </c>
+      <c r="F39" s="11">
+        <f t="shared" si="4"/>
+        <v>5499.71000000001</v>
+      </c>
+      <c r="G39" s="11">
+        <f t="shared" si="5"/>
+        <v>5.58911970686266</v>
+      </c>
+      <c r="H39" s="11">
+        <f t="shared" si="6"/>
+        <v>102336.3016</v>
+      </c>
+      <c r="I39" s="11">
+        <f t="shared" si="7"/>
+        <v>1563.69840000001</v>
       </c>
     </row>
     <row r="40" spans="6:9">

--- a/WalletFundAddedStatement.xlsx
+++ b/WalletFundAddedStatement.xlsx
@@ -51,10 +51,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="[$-409]dd\-mmm\-yy;@"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="[$-409]dd\-mmm\-yy;@"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="23">
@@ -87,29 +87,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -117,16 +94,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,18 +117,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -171,30 +148,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -209,8 +171,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,13 +226,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,7 +264,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,37 +354,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,49 +366,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,19 +402,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,43 +444,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,74 +458,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,6 +484,69 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -560,13 +560,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -578,130 +578,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -742,7 +742,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1069,7 +1069,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G41" sqref="G41"/>
+      <selection pane="bottomLeft" activeCell="A39" sqref="A39:A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1122,31 +1122,31 @@
       </c>
       <c r="C2" s="7">
         <f>SUM(C3:C220)</f>
-        <v>4487687</v>
+        <v>4504898</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(D3:D220)</f>
-        <v>4250120.53</v>
+        <v>4266420.03</v>
       </c>
       <c r="E2" s="8">
         <f>C2-D2</f>
-        <v>237566.47</v>
+        <v>238477.97</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F3:F220)</f>
-        <v>237566.47</v>
+        <v>238477.97</v>
       </c>
       <c r="G2" s="10">
         <f>C2-H2</f>
-        <v>67561.6487999996</v>
+        <v>67821.1687999992</v>
       </c>
       <c r="H2" s="7">
         <f>SUM(H3:H220)</f>
-        <v>4420125.3512</v>
+        <v>4437076.8312</v>
       </c>
       <c r="I2" s="10">
         <f>SUM(I3:I220)</f>
-        <v>67561.6487999999</v>
+        <v>67821.1687999999</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:9">
@@ -2370,22 +2370,37 @@
         <v>1563.69840000001</v>
       </c>
     </row>
-    <row r="40" spans="6:9">
-      <c r="F40" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G40" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H40" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I40" s="11" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+    <row r="40" spans="1:9">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2">
+        <v>26424678</v>
+      </c>
+      <c r="C40" s="11">
+        <v>17211</v>
+      </c>
+      <c r="D40" s="11">
+        <v>16299.5</v>
+      </c>
+      <c r="E40" s="12">
+        <v>44261</v>
+      </c>
+      <c r="F40" s="11">
+        <f t="shared" si="4"/>
+        <v>911.5</v>
+      </c>
+      <c r="G40" s="11">
+        <f t="shared" si="5"/>
+        <v>5.59219607963434</v>
+      </c>
+      <c r="H40" s="11">
+        <f t="shared" si="6"/>
+        <v>16951.48</v>
+      </c>
+      <c r="I40" s="11">
+        <f t="shared" si="7"/>
+        <v>259.52</v>
       </c>
     </row>
     <row r="41" spans="6:9">

--- a/WalletFundAddedStatement.xlsx
+++ b/WalletFundAddedStatement.xlsx
@@ -51,11 +51,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="[$-409]dd\-mmm\-yy;@"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="[$-409]dd\-mmm\-yy;@"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -88,13 +88,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -103,9 +96,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -120,21 +128,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,8 +172,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,15 +203,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,15 +225,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,7 +264,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,31 +366,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,13 +402,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,79 +426,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,37 +444,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,9 +460,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,21 +509,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -539,19 +526,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,13 +560,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -578,130 +578,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -742,7 +742,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1069,7 +1069,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A39" sqref="A39:A40"/>
+      <selection pane="bottomLeft" activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1122,31 +1122,31 @@
       </c>
       <c r="C2" s="7">
         <f>SUM(C3:C220)</f>
-        <v>4504898</v>
+        <v>4578810</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(D3:D220)</f>
-        <v>4266420.03</v>
+        <v>4336418.47</v>
       </c>
       <c r="E2" s="8">
         <f>C2-D2</f>
-        <v>238477.97</v>
+        <v>242391.53</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F3:F220)</f>
-        <v>238477.97</v>
+        <v>242391.53</v>
       </c>
       <c r="G2" s="10">
         <f>C2-H2</f>
-        <v>67821.1687999992</v>
+        <v>68934.7911999999</v>
       </c>
       <c r="H2" s="7">
         <f>SUM(H3:H220)</f>
-        <v>4437076.8312</v>
+        <v>4509875.2088</v>
       </c>
       <c r="I2" s="10">
         <f>SUM(I3:I220)</f>
-        <v>67821.1687999999</v>
+        <v>68934.7911999999</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:9">
@@ -2403,40 +2403,70 @@
         <v>259.52</v>
       </c>
     </row>
-    <row r="41" spans="6:9">
-      <c r="F41" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G41" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H41" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I41" s="11" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="6:9">
-      <c r="F42" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G42" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H42" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I42" s="11" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+    <row r="41" spans="1:9">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2">
+        <v>26426379</v>
+      </c>
+      <c r="C41" s="11">
+        <v>36956</v>
+      </c>
+      <c r="D41" s="11">
+        <v>34999.22</v>
+      </c>
+      <c r="E41" s="12">
+        <v>44261</v>
+      </c>
+      <c r="F41" s="11">
+        <f t="shared" si="4"/>
+        <v>1956.78</v>
+      </c>
+      <c r="G41" s="11">
+        <f t="shared" si="5"/>
+        <v>5.59092459774817</v>
+      </c>
+      <c r="H41" s="11">
+        <f t="shared" si="6"/>
+        <v>36399.1888</v>
+      </c>
+      <c r="I41" s="11">
+        <f t="shared" si="7"/>
+        <v>556.811199999996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2">
+        <v>26446577</v>
+      </c>
+      <c r="C42" s="11">
+        <v>36956</v>
+      </c>
+      <c r="D42" s="11">
+        <v>34999.22</v>
+      </c>
+      <c r="E42" s="12">
+        <v>44262</v>
+      </c>
+      <c r="F42" s="11">
+        <f t="shared" si="4"/>
+        <v>1956.78</v>
+      </c>
+      <c r="G42" s="11">
+        <f t="shared" si="5"/>
+        <v>5.59092459774817</v>
+      </c>
+      <c r="H42" s="11">
+        <f t="shared" si="6"/>
+        <v>36399.1888</v>
+      </c>
+      <c r="I42" s="11">
+        <f t="shared" si="7"/>
+        <v>556.811199999996</v>
       </c>
     </row>
     <row r="43" spans="6:9">

--- a/WalletFundAddedStatement.xlsx
+++ b/WalletFundAddedStatement.xlsx
@@ -51,11 +51,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="[$-409]dd\-mmm\-yy;@"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -94,7 +94,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -103,23 +102,22 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,23 +131,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -164,17 +154,54 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,44 +215,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,25 +264,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,19 +288,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,61 +306,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,7 +336,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,13 +366,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,7 +396,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,19 +432,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,13 +458,65 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,39 +538,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,36 +555,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -578,130 +578,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1069,7 +1069,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J42" sqref="J42"/>
+      <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1122,31 +1122,31 @@
       </c>
       <c r="C2" s="7">
         <f>SUM(C3:C220)</f>
-        <v>4578810</v>
+        <v>4800337</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(D3:D220)</f>
-        <v>4336418.47</v>
+        <v>4546218.37</v>
       </c>
       <c r="E2" s="8">
         <f>C2-D2</f>
-        <v>242391.53</v>
+        <v>254118.63</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F3:F220)</f>
-        <v>242391.53</v>
+        <v>254118.63</v>
       </c>
       <c r="G2" s="10">
         <f>C2-H2</f>
-        <v>68934.7911999999</v>
+        <v>72269.8952000001</v>
       </c>
       <c r="H2" s="7">
         <f>SUM(H3:H220)</f>
-        <v>4509875.2088</v>
+        <v>4728067.1048</v>
       </c>
       <c r="I2" s="10">
         <f>SUM(I3:I220)</f>
-        <v>68934.7911999999</v>
+        <v>72269.8951999999</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:9">
@@ -2469,25 +2469,42 @@
         <v>556.811199999996</v>
       </c>
     </row>
-    <row r="43" spans="6:9">
-      <c r="F43" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G43" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H43" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I43" s="11" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="6:9">
+    <row r="43" spans="1:9">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2">
+        <v>26457955</v>
+      </c>
+      <c r="C43" s="11">
+        <v>221527</v>
+      </c>
+      <c r="D43" s="11">
+        <v>209799.9</v>
+      </c>
+      <c r="E43" s="12">
+        <v>44264</v>
+      </c>
+      <c r="F43" s="11">
+        <f t="shared" si="4"/>
+        <v>11727.1</v>
+      </c>
+      <c r="G43" s="11">
+        <f t="shared" si="5"/>
+        <v>5.58965948029527</v>
+      </c>
+      <c r="H43" s="11">
+        <f t="shared" si="6"/>
+        <v>218191.896</v>
+      </c>
+      <c r="I43" s="11">
+        <f t="shared" si="7"/>
+        <v>3335.10399999999</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9">
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
       <c r="F44" s="11" t="str">
         <f t="shared" si="4"/>
         <v/>

--- a/WalletFundAddedStatement.xlsx
+++ b/WalletFundAddedStatement.xlsx
@@ -51,8 +51,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="[$-409]dd\-mmm\-yy;@"/>
@@ -87,20 +87,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -116,8 +102,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -132,7 +187,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,72 +216,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -264,37 +264,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,7 +300,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,13 +318,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,55 +390,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,49 +444,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,6 +455,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -476,16 +491,18 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -506,6 +523,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -521,37 +547,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,7 +560,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -578,130 +578,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1067,9 +1067,9 @@
   <dimension ref="A1:I220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
+      <selection pane="bottomLeft" activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1122,31 +1122,31 @@
       </c>
       <c r="C2" s="7">
         <f>SUM(C3:C220)</f>
-        <v>4800337</v>
+        <v>4918597</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(D3:D220)</f>
-        <v>4546218.37</v>
+        <v>4658218.28</v>
       </c>
       <c r="E2" s="8">
         <f>C2-D2</f>
-        <v>254118.63</v>
+        <v>260378.72</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F3:F220)</f>
-        <v>254118.63</v>
+        <v>260378.72</v>
       </c>
       <c r="G2" s="10">
         <f>C2-H2</f>
-        <v>72269.8952000001</v>
+        <v>74049.9887999995</v>
       </c>
       <c r="H2" s="7">
         <f>SUM(H3:H220)</f>
-        <v>4728067.1048</v>
+        <v>4844547.0112</v>
       </c>
       <c r="I2" s="10">
         <f>SUM(I3:I220)</f>
-        <v>72269.8951999999</v>
+        <v>74049.9887999999</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:9">
@@ -2502,60 +2502,103 @@
         <v>3335.10399999999</v>
       </c>
     </row>
-    <row r="44" spans="3:9">
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="F44" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G44" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H44" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I44" s="11" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="6:9">
-      <c r="F45" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G45" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H45" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I45" s="11" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="6:9">
-      <c r="F46" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G46" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H46" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I46" s="11" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+    <row r="44" spans="1:9">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2">
+        <v>26418265</v>
+      </c>
+      <c r="C44" s="11">
+        <v>28509</v>
+      </c>
+      <c r="D44" s="11">
+        <v>26999.8</v>
+      </c>
+      <c r="E44" s="12">
+        <v>44267</v>
+      </c>
+      <c r="F44" s="11">
+        <f t="shared" si="4"/>
+        <v>1509.2</v>
+      </c>
+      <c r="G44" s="11">
+        <f t="shared" si="5"/>
+        <v>5.58967103460026</v>
+      </c>
+      <c r="H44" s="11">
+        <f t="shared" si="6"/>
+        <v>28079.792</v>
+      </c>
+      <c r="I44" s="11">
+        <f t="shared" si="7"/>
+        <v>429.207999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2">
+        <v>26499129</v>
+      </c>
+      <c r="C45" s="11">
+        <v>47515</v>
+      </c>
+      <c r="D45" s="11">
+        <v>45000</v>
+      </c>
+      <c r="E45" s="12">
+        <v>44268</v>
+      </c>
+      <c r="F45" s="11">
+        <f t="shared" si="4"/>
+        <v>2515</v>
+      </c>
+      <c r="G45" s="11">
+        <f t="shared" si="5"/>
+        <v>5.58888888888889</v>
+      </c>
+      <c r="H45" s="11">
+        <f t="shared" si="6"/>
+        <v>46800</v>
+      </c>
+      <c r="I45" s="11">
+        <f t="shared" si="7"/>
+        <v>715</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2">
+        <v>26480730</v>
+      </c>
+      <c r="C46" s="11">
+        <v>42236</v>
+      </c>
+      <c r="D46" s="11">
+        <v>40000.11</v>
+      </c>
+      <c r="E46" s="12">
+        <v>44269</v>
+      </c>
+      <c r="F46" s="11">
+        <f t="shared" si="4"/>
+        <v>2235.89</v>
+      </c>
+      <c r="G46" s="11">
+        <f t="shared" si="5"/>
+        <v>5.58970962829852</v>
+      </c>
+      <c r="H46" s="11">
+        <f t="shared" si="6"/>
+        <v>41600.1144</v>
+      </c>
+      <c r="I46" s="11">
+        <f t="shared" si="7"/>
+        <v>635.885600000001</v>
       </c>
     </row>
     <row r="47" spans="6:9">

--- a/WalletFundAddedStatement.xlsx
+++ b/WalletFundAddedStatement.xlsx
@@ -51,10 +51,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="[$-409]dd\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="23">
@@ -87,39 +87,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,15 +109,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,39 +133,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,6 +156,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -217,7 +181,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,19 +264,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,7 +288,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,145 +438,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,21 +455,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -492,18 +477,46 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,32 +539,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,7 +560,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -578,130 +578,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1067,9 +1067,9 @@
   <dimension ref="A1:I220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J48" sqref="J48"/>
+      <selection pane="bottomLeft" activeCell="C52" sqref="C52:D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1122,31 +1122,31 @@
       </c>
       <c r="C2" s="7">
         <f>SUM(C3:C220)</f>
-        <v>4918597</v>
+        <v>5201812</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(D3:D220)</f>
-        <v>4658218.28</v>
+        <v>4926439.4</v>
       </c>
       <c r="E2" s="8">
         <f>C2-D2</f>
-        <v>260378.72</v>
+        <v>275372.6</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F3:F220)</f>
-        <v>260378.72</v>
+        <v>275372.6</v>
       </c>
       <c r="G2" s="10">
         <f>C2-H2</f>
-        <v>74049.9887999995</v>
+        <v>78315.0239999993</v>
       </c>
       <c r="H2" s="7">
         <f>SUM(H3:H220)</f>
-        <v>4844547.0112</v>
+        <v>5123496.976</v>
       </c>
       <c r="I2" s="10">
         <f>SUM(I3:I220)</f>
-        <v>74049.9887999999</v>
+        <v>78315.0239999999</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:9">
@@ -2601,112 +2601,202 @@
         <v>635.885600000001</v>
       </c>
     </row>
-    <row r="47" spans="6:9">
-      <c r="F47" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G47" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H47" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I47" s="11" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="6:9">
-      <c r="F48" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G48" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H48" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I48" s="11" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="6:9">
-      <c r="F49" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G49" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H49" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I49" s="11" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="6:9">
-      <c r="F50" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G50" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H50" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I50" s="11" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="6:9">
-      <c r="F51" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G51" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H51" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I51" s="11" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="6:9">
-      <c r="F52" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G52" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H52" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I52" s="11" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+    <row r="47" spans="1:9">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2">
+        <v>26494758</v>
+      </c>
+      <c r="C47" s="11">
+        <v>31677</v>
+      </c>
+      <c r="D47" s="11">
+        <v>30000.33</v>
+      </c>
+      <c r="E47" s="12">
+        <v>44270</v>
+      </c>
+      <c r="F47" s="11">
+        <f t="shared" si="4"/>
+        <v>1676.67</v>
+      </c>
+      <c r="G47" s="11">
+        <f t="shared" si="5"/>
+        <v>5.58883852277624</v>
+      </c>
+      <c r="H47" s="11">
+        <f t="shared" si="6"/>
+        <v>31200.3432</v>
+      </c>
+      <c r="I47" s="11">
+        <f t="shared" si="7"/>
+        <v>476.656799999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2">
+        <v>26520745</v>
+      </c>
+      <c r="C48" s="11">
+        <v>52795</v>
+      </c>
+      <c r="D48" s="11">
+        <v>49999.89</v>
+      </c>
+      <c r="E48" s="12">
+        <v>44271</v>
+      </c>
+      <c r="F48" s="11">
+        <f t="shared" si="4"/>
+        <v>2795.11</v>
+      </c>
+      <c r="G48" s="11">
+        <f t="shared" si="5"/>
+        <v>5.59023229851106</v>
+      </c>
+      <c r="H48" s="11">
+        <f t="shared" si="6"/>
+        <v>51999.8856</v>
+      </c>
+      <c r="I48" s="11">
+        <f t="shared" si="7"/>
+        <v>795.114399999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2">
+        <v>26520801</v>
+      </c>
+      <c r="C49" s="11">
+        <v>23464</v>
+      </c>
+      <c r="D49" s="11">
+        <v>22221.39</v>
+      </c>
+      <c r="E49" s="12">
+        <v>44271</v>
+      </c>
+      <c r="F49" s="11">
+        <f t="shared" si="4"/>
+        <v>1242.61</v>
+      </c>
+      <c r="G49" s="11">
+        <f t="shared" si="5"/>
+        <v>5.59195441869298</v>
+      </c>
+      <c r="H49" s="11">
+        <f t="shared" si="6"/>
+        <v>23110.2456</v>
+      </c>
+      <c r="I49" s="11">
+        <f t="shared" si="7"/>
+        <v>353.754400000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2">
+        <v>25824156</v>
+      </c>
+      <c r="C50" s="11">
+        <v>26397</v>
+      </c>
+      <c r="D50" s="11">
+        <v>24999.44</v>
+      </c>
+      <c r="E50" s="12">
+        <v>44273</v>
+      </c>
+      <c r="F50" s="11">
+        <f t="shared" si="4"/>
+        <v>1397.56</v>
+      </c>
+      <c r="G50" s="11">
+        <f t="shared" si="5"/>
+        <v>5.59036522418103</v>
+      </c>
+      <c r="H50" s="11">
+        <f t="shared" si="6"/>
+        <v>25999.4176</v>
+      </c>
+      <c r="I50" s="11">
+        <f t="shared" si="7"/>
+        <v>397.582399999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" s="2">
+        <v>26557418</v>
+      </c>
+      <c r="C51" s="11">
+        <v>126708</v>
+      </c>
+      <c r="D51" s="11">
+        <v>120000.34</v>
+      </c>
+      <c r="E51" s="12">
+        <v>44275</v>
+      </c>
+      <c r="F51" s="11">
+        <f t="shared" si="4"/>
+        <v>6707.66</v>
+      </c>
+      <c r="G51" s="11">
+        <f t="shared" si="5"/>
+        <v>5.58970082918099</v>
+      </c>
+      <c r="H51" s="11">
+        <f t="shared" si="6"/>
+        <v>124800.3536</v>
+      </c>
+      <c r="I51" s="11">
+        <f t="shared" si="7"/>
+        <v>1907.6464</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" s="2">
+        <v>26565040</v>
+      </c>
+      <c r="C52" s="11">
+        <v>22174</v>
+      </c>
+      <c r="D52" s="11">
+        <v>20999.73</v>
+      </c>
+      <c r="E52" s="12">
+        <v>44277</v>
+      </c>
+      <c r="F52" s="11">
+        <f t="shared" si="4"/>
+        <v>1174.27</v>
+      </c>
+      <c r="G52" s="11">
+        <f t="shared" si="5"/>
+        <v>5.5918337997679</v>
+      </c>
+      <c r="H52" s="11">
+        <f t="shared" si="6"/>
+        <v>21839.7192</v>
+      </c>
+      <c r="I52" s="11">
+        <f t="shared" si="7"/>
+        <v>334.2808</v>
       </c>
     </row>
     <row r="53" spans="6:9">

--- a/WalletFundAddedStatement.xlsx
+++ b/WalletFundAddedStatement.xlsx
@@ -51,11 +51,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="[$-409]dd\-mmm\-yy;@"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="[$-409]dd\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -103,17 +103,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -125,17 +117,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,34 +140,18 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -201,10 +176,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -217,7 +217,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,7 +225,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,12 +264,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -282,7 +276,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,7 +288,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,19 +324,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,19 +354,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,43 +366,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,13 +390,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,25 +408,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,6 +455,60 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -476,8 +530,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,61 +540,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,10 +560,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -578,130 +578,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -742,7 +742,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1064,12 +1064,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I220"/>
+  <dimension ref="A1:I221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C52" sqref="C52:D52"/>
+      <selection pane="bottomLeft" activeCell="J60" sqref="J60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1121,32 +1121,32 @@
         <v>9</v>
       </c>
       <c r="C2" s="7">
-        <f>SUM(C3:C220)</f>
-        <v>5201812</v>
+        <f>SUM(C3:C221)</f>
+        <v>5345202</v>
       </c>
       <c r="D2" s="7">
-        <f>SUM(D3:D220)</f>
-        <v>4926439.4</v>
+        <f>SUM(D3:D221)</f>
+        <v>5062240.14</v>
       </c>
       <c r="E2" s="8">
         <f>C2-D2</f>
-        <v>275372.6</v>
+        <v>282961.86</v>
       </c>
       <c r="F2" s="9">
-        <f>SUM(F3:F220)</f>
-        <v>275372.6</v>
+        <f>SUM(F3:F221)</f>
+        <v>282961.86</v>
       </c>
       <c r="G2" s="10">
         <f>C2-H2</f>
-        <v>78315.0239999993</v>
+        <v>80472.254399999</v>
       </c>
       <c r="H2" s="7">
-        <f>SUM(H3:H220)</f>
-        <v>5123496.976</v>
+        <f>SUM(H3:H221)</f>
+        <v>5264729.7456</v>
       </c>
       <c r="I2" s="10">
-        <f>SUM(I3:I220)</f>
-        <v>78315.0239999999</v>
+        <f>SUM(I3:I221)</f>
+        <v>80472.2543999999</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:9">
@@ -2799,97 +2799,175 @@
         <v>334.2808</v>
       </c>
     </row>
-    <row r="53" spans="6:9">
-      <c r="F53" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G53" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H53" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I53" s="11" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="6:9">
-      <c r="F54" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G54" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H54" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I54" s="11" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="6:9">
-      <c r="F55" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G55" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H55" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I55" s="11" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="6:9">
-      <c r="F56" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G56" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H56" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I56" s="11" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="6:9">
-      <c r="F57" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G57" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H57" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I57" s="11" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="6:9">
+    <row r="53" spans="1:9">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" s="2">
+        <v>26577691</v>
+      </c>
+      <c r="C53" s="11">
+        <v>15838</v>
+      </c>
+      <c r="D53" s="11">
+        <v>14999.67</v>
+      </c>
+      <c r="E53" s="12">
+        <v>44278</v>
+      </c>
+      <c r="F53" s="11">
+        <f t="shared" si="4"/>
+        <v>838.33</v>
+      </c>
+      <c r="G53" s="11">
+        <f t="shared" si="5"/>
+        <v>5.5889896244384</v>
+      </c>
+      <c r="H53" s="11">
+        <f t="shared" si="6"/>
+        <v>15599.6568</v>
+      </c>
+      <c r="I53" s="11">
+        <f t="shared" si="7"/>
+        <v>238.343199999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="1">
+        <v>51</v>
+      </c>
+      <c r="B54" s="2">
+        <v>26543741</v>
+      </c>
+      <c r="C54" s="11">
+        <v>31677</v>
+      </c>
+      <c r="D54" s="11">
+        <v>30000.33</v>
+      </c>
+      <c r="E54" s="12">
+        <v>44278</v>
+      </c>
+      <c r="F54" s="11">
+        <f t="shared" si="4"/>
+        <v>1676.67</v>
+      </c>
+      <c r="G54" s="11">
+        <f t="shared" si="5"/>
+        <v>5.58883852277624</v>
+      </c>
+      <c r="H54" s="11">
+        <f t="shared" si="6"/>
+        <v>31200.3432</v>
+      </c>
+      <c r="I54" s="11">
+        <f t="shared" si="7"/>
+        <v>476.656799999997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="1">
+        <v>52</v>
+      </c>
+      <c r="B55" s="2">
+        <v>26575351</v>
+      </c>
+      <c r="C55" s="11">
+        <v>35900</v>
+      </c>
+      <c r="D55" s="11">
+        <v>34000.04</v>
+      </c>
+      <c r="E55" s="12">
+        <v>44278</v>
+      </c>
+      <c r="F55" s="11">
+        <f t="shared" si="4"/>
+        <v>1899.96</v>
+      </c>
+      <c r="G55" s="11">
+        <f t="shared" si="5"/>
+        <v>5.5881110728105</v>
+      </c>
+      <c r="H55" s="11">
+        <f t="shared" si="6"/>
+        <v>35360.0416</v>
+      </c>
+      <c r="I55" s="11">
+        <f t="shared" si="7"/>
+        <v>539.958399999996</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="1">
+        <v>53</v>
+      </c>
+      <c r="B56" s="2">
+        <v>26575086</v>
+      </c>
+      <c r="C56" s="11">
+        <v>21118</v>
+      </c>
+      <c r="D56" s="11">
+        <v>20000.56</v>
+      </c>
+      <c r="E56" s="12">
+        <v>44279</v>
+      </c>
+      <c r="F56" s="11">
+        <f t="shared" si="4"/>
+        <v>1117.44</v>
+      </c>
+      <c r="G56" s="11">
+        <f t="shared" si="5"/>
+        <v>5.58704356278024</v>
+      </c>
+      <c r="H56" s="11">
+        <f t="shared" si="6"/>
+        <v>20800.5824</v>
+      </c>
+      <c r="I56" s="11">
+        <f t="shared" si="7"/>
+        <v>317.417599999997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="1">
+        <v>54</v>
+      </c>
+      <c r="B57" s="2">
+        <v>26588279</v>
+      </c>
+      <c r="C57" s="11">
+        <v>38857</v>
+      </c>
+      <c r="D57" s="11">
+        <v>36800.14</v>
+      </c>
+      <c r="E57" s="12">
+        <v>44280</v>
+      </c>
+      <c r="F57" s="11">
+        <f t="shared" si="4"/>
+        <v>2056.86</v>
+      </c>
+      <c r="G57" s="11">
+        <f t="shared" si="5"/>
+        <v>5.58927221472527</v>
+      </c>
+      <c r="H57" s="11">
+        <f t="shared" si="6"/>
+        <v>38272.1456</v>
+      </c>
+      <c r="I57" s="11">
+        <f t="shared" si="7"/>
+        <v>584.854399999997</v>
+      </c>
+    </row>
+    <row r="58" spans="3:9">
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="12"/>
       <c r="F58" s="11" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -2907,7 +2985,10 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="6:9">
+    <row r="59" spans="3:9">
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="12"/>
       <c r="F59" s="11" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -2925,7 +3006,10 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="6:9">
+    <row r="60" spans="3:9">
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="12"/>
       <c r="F60" s="11" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -2943,7 +3027,10 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="6:9">
+    <row r="61" spans="3:9">
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="12"/>
       <c r="F61" s="11" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -2961,7 +3048,10 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="6:9">
+    <row r="62" spans="3:9">
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="12"/>
       <c r="F62" s="11" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -2979,7 +3069,10 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="6:9">
+    <row r="63" spans="3:9">
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="12"/>
       <c r="F63" s="11" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -2997,7 +3090,10 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="6:9">
+    <row r="64" spans="3:9">
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="12"/>
       <c r="F64" s="11" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3015,7 +3111,10 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="6:9">
+    <row r="65" spans="3:9">
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="12"/>
       <c r="F65" s="11" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3033,7 +3132,10 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="6:9">
+    <row r="66" spans="3:9">
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="12"/>
       <c r="F66" s="11" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3051,7 +3153,10 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="6:9">
+    <row r="67" spans="3:9">
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="12"/>
       <c r="F67" s="11" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3069,7 +3174,10 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="6:9">
+    <row r="68" spans="3:9">
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="12"/>
       <c r="F68" s="11" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3087,7 +3195,10 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="6:9">
+    <row r="69" spans="3:9">
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="12"/>
       <c r="F69" s="11" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3105,7 +3216,10 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="6:9">
+    <row r="70" spans="3:9">
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="12"/>
       <c r="F70" s="11" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3123,7 +3237,10 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="6:9">
+    <row r="71" spans="3:9">
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="12"/>
       <c r="F71" s="11" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3141,7 +3258,10 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="6:9">
+    <row r="72" spans="3:9">
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="12"/>
       <c r="F72" s="11" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3159,7 +3279,10 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="6:9">
+    <row r="73" spans="3:9">
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="12"/>
       <c r="F73" s="11" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3177,7 +3300,10 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="6:9">
+    <row r="74" spans="3:9">
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="12"/>
       <c r="F74" s="11" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3195,7 +3321,10 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="6:9">
+    <row r="75" spans="3:9">
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="12"/>
       <c r="F75" s="11" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3213,7 +3342,10 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="6:9">
+    <row r="76" spans="3:9">
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="12"/>
       <c r="F76" s="11" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3231,7 +3363,10 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="6:9">
+    <row r="77" spans="3:9">
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="12"/>
       <c r="F77" s="11" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3249,7 +3384,10 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="6:9">
+    <row r="78" spans="3:9">
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="12"/>
       <c r="F78" s="11" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3267,7 +3405,10 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="6:9">
+    <row r="79" spans="3:9">
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="12"/>
       <c r="F79" s="11" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3285,7 +3426,10 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="6:9">
+    <row r="80" spans="3:9">
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="12"/>
       <c r="F80" s="11" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3303,7 +3447,10 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="6:9">
+    <row r="81" spans="3:9">
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="12"/>
       <c r="F81" s="11" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3321,43 +3468,48 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="6:9">
+    <row r="82" spans="3:9">
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="12"/>
       <c r="F82" s="11" t="str">
-        <f t="shared" ref="F82:F145" si="8">IF(B82="","",C82-D82)</f>
+        <f>IF(B82="","",C82-D82)</f>
         <v/>
       </c>
       <c r="G82" s="11" t="str">
-        <f t="shared" ref="G82:G145" si="9">IF(B82="","",F82/D82*100)</f>
+        <f>IF(B82="","",F82/D82*100)</f>
         <v/>
       </c>
       <c r="H82" s="11" t="str">
-        <f t="shared" ref="H82:H145" si="10">IF(B82="","",D82*1.04)</f>
+        <f>IF(B82="","",D82*1.04)</f>
         <v/>
       </c>
       <c r="I82" s="11" t="str">
-        <f t="shared" ref="I82:I145" si="11">IF(B82="","",C82-H82)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="83" spans="6:9">
+        <f>IF(B82="","",C82-H82)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="5:9">
+      <c r="E83" s="12"/>
       <c r="F83" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="F83:F146" si="8">IF(B83="","",C83-D83)</f>
         <v/>
       </c>
       <c r="G83" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="G83:G146" si="9">IF(B83="","",F83/D83*100)</f>
         <v/>
       </c>
       <c r="H83" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="H83:H146" si="10">IF(B83="","",D83*1.04)</f>
         <v/>
       </c>
       <c r="I83" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="84" spans="6:9">
+        <f t="shared" ref="I83:I146" si="11">IF(B83="","",C83-H83)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="5:9">
+      <c r="E84" s="12"/>
       <c r="F84" s="11" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -3375,7 +3527,8 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="6:9">
+    <row r="85" spans="5:9">
+      <c r="E85" s="12"/>
       <c r="F85" s="11" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4475,37 +4628,37 @@
     </row>
     <row r="146" spans="6:9">
       <c r="F146" s="11" t="str">
-        <f t="shared" ref="F146:F209" si="12">IF(B146="","",C146-D146)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G146" s="11" t="str">
-        <f t="shared" ref="G146:G209" si="13">IF(B146="","",F146/D146*100)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="H146" s="11" t="str">
-        <f t="shared" ref="H146:H209" si="14">IF(B146="","",D146*1.04)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="I146" s="11" t="str">
-        <f t="shared" ref="I146:I209" si="15">IF(B146="","",C146-H146)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="147" spans="6:9">
       <c r="F147" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="F147:F210" si="12">IF(B147="","",C147-D147)</f>
         <v/>
       </c>
       <c r="G147" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="G147:G210" si="13">IF(B147="","",F147/D147*100)</f>
         <v/>
       </c>
       <c r="H147" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="H147:H210" si="14">IF(B147="","",D147*1.04)</f>
         <v/>
       </c>
       <c r="I147" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="I147:I210" si="15">IF(B147="","",C147-H147)</f>
         <v/>
       </c>
     </row>
@@ -5627,37 +5780,37 @@
     </row>
     <row r="210" spans="6:9">
       <c r="F210" s="11" t="str">
-        <f t="shared" ref="F210:F220" si="16">IF(B210="","",C210-D210)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G210" s="11" t="str">
-        <f t="shared" ref="G210:G220" si="17">IF(B210="","",F210/D210*100)</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="H210" s="11" t="str">
-        <f t="shared" ref="H210:H220" si="18">IF(B210="","",D210*1.04)</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I210" s="11" t="str">
-        <f t="shared" ref="I210:I220" si="19">IF(B210="","",C210-H210)</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="211" spans="6:9">
       <c r="F211" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="F211:F221" si="16">IF(B211="","",C211-D211)</f>
         <v/>
       </c>
       <c r="G211" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="G211:G221" si="17">IF(B211="","",F211/D211*100)</f>
         <v/>
       </c>
       <c r="H211" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="H211:H221" si="18">IF(B211="","",D211*1.04)</f>
         <v/>
       </c>
       <c r="I211" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="I211:I221" si="19">IF(B211="","",C211-H211)</f>
         <v/>
       </c>
     </row>
@@ -5819,6 +5972,24 @@
         <v/>
       </c>
       <c r="I220" s="11" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="221" spans="6:9">
+      <c r="F221" s="11" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="G221" s="11" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="H221" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="I221" s="11" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>

--- a/WalletFundAddedStatement.xlsx
+++ b/WalletFundAddedStatement.xlsx
@@ -51,11 +51,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="[$-409]dd\-mmm\-yy;@"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="[$-409]dd\-mmm\-yy;@"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -94,6 +94,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -102,10 +110,18 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -117,8 +133,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,13 +151,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,56 +172,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -218,6 +197,27 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,7 +264,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,7 +294,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,97 +414,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,61 +438,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,6 +455,54 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -488,59 +536,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,13 +560,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -578,130 +578,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -742,7 +742,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1069,7 +1069,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J60" sqref="J60"/>
+      <selection pane="bottomLeft" activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1122,31 +1122,31 @@
       </c>
       <c r="C2" s="7">
         <f>SUM(C3:C221)</f>
-        <v>5345202</v>
+        <v>5503586</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(D3:D221)</f>
-        <v>5062240.14</v>
+        <v>5212239.8</v>
       </c>
       <c r="E2" s="8">
         <f>C2-D2</f>
-        <v>282961.86</v>
+        <v>291346.2</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F3:F221)</f>
-        <v>282961.86</v>
+        <v>291346.2</v>
       </c>
       <c r="G2" s="10">
         <f>C2-H2</f>
-        <v>80472.254399999</v>
+        <v>82856.608</v>
       </c>
       <c r="H2" s="7">
         <f>SUM(H3:H221)</f>
-        <v>5264729.7456</v>
+        <v>5420729.392</v>
       </c>
       <c r="I2" s="10">
         <f>SUM(I3:I221)</f>
-        <v>80472.2543999999</v>
+        <v>82856.6079999999</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:9">
@@ -1938,7 +1938,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" si="7"/>
-        <v>572.623999999996</v>
+        <v>572.624000000003</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2037,7 +2037,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" si="7"/>
-        <v>1685.15599999999</v>
+        <v>1685.156</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2136,7 +2136,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" si="7"/>
-        <v>1986.77119999999</v>
+        <v>1986.7712</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2202,7 +2202,7 @@
       </c>
       <c r="I34" s="11">
         <f t="shared" si="7"/>
-        <v>2225.07439999998</v>
+        <v>2225.07440000001</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2367,7 +2367,7 @@
       </c>
       <c r="I39" s="11">
         <f t="shared" si="7"/>
-        <v>1563.69840000001</v>
+        <v>1563.69839999999</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="I47" s="11">
         <f t="shared" si="7"/>
-        <v>476.656799999997</v>
+        <v>476.656800000001</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2862,7 +2862,7 @@
       </c>
       <c r="I54" s="11">
         <f t="shared" si="7"/>
-        <v>476.656799999997</v>
+        <v>476.656800000001</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2895,7 +2895,7 @@
       </c>
       <c r="I55" s="11">
         <f t="shared" si="7"/>
-        <v>539.958399999996</v>
+        <v>539.958400000003</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2928,7 +2928,7 @@
       </c>
       <c r="I56" s="11">
         <f t="shared" si="7"/>
-        <v>317.417599999997</v>
+        <v>317.417600000001</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2964,88 +2964,136 @@
         <v>584.854399999997</v>
       </c>
     </row>
-    <row r="58" spans="3:9">
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G58" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H58" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I58" s="11" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="3:9">
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G59" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H59" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I59" s="11" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="3:9">
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G60" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H60" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I60" s="11" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="3:9">
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G61" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H61" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I61" s="11" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+    <row r="58" spans="1:9">
+      <c r="A58" s="1">
+        <v>55</v>
+      </c>
+      <c r="B58" s="2">
+        <v>26594327</v>
+      </c>
+      <c r="C58" s="11">
+        <v>31677</v>
+      </c>
+      <c r="D58" s="11">
+        <v>30000.33</v>
+      </c>
+      <c r="E58" s="12">
+        <v>44280</v>
+      </c>
+      <c r="F58" s="11">
+        <f t="shared" si="4"/>
+        <v>1676.67</v>
+      </c>
+      <c r="G58" s="11">
+        <f t="shared" si="5"/>
+        <v>5.58883852277624</v>
+      </c>
+      <c r="H58" s="11">
+        <f t="shared" si="6"/>
+        <v>31200.3432</v>
+      </c>
+      <c r="I58" s="11">
+        <f t="shared" si="7"/>
+        <v>476.656800000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="1">
+        <v>56</v>
+      </c>
+      <c r="B59" s="2">
+        <v>26613703</v>
+      </c>
+      <c r="C59" s="11">
+        <v>52795</v>
+      </c>
+      <c r="D59" s="11">
+        <v>49999.89</v>
+      </c>
+      <c r="E59" s="12">
+        <v>44282</v>
+      </c>
+      <c r="F59" s="11">
+        <f t="shared" si="4"/>
+        <v>2795.11</v>
+      </c>
+      <c r="G59" s="11">
+        <f t="shared" si="5"/>
+        <v>5.59023229851106</v>
+      </c>
+      <c r="H59" s="11">
+        <f t="shared" si="6"/>
+        <v>51999.8856</v>
+      </c>
+      <c r="I59" s="11">
+        <f t="shared" si="7"/>
+        <v>795.114399999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="1">
+        <v>57</v>
+      </c>
+      <c r="B60" s="2">
+        <v>26616616</v>
+      </c>
+      <c r="C60" s="11">
+        <v>47515</v>
+      </c>
+      <c r="D60" s="11">
+        <v>45000</v>
+      </c>
+      <c r="E60" s="12">
+        <v>44283</v>
+      </c>
+      <c r="F60" s="11">
+        <f t="shared" si="4"/>
+        <v>2515</v>
+      </c>
+      <c r="G60" s="11">
+        <f t="shared" si="5"/>
+        <v>5.58888888888889</v>
+      </c>
+      <c r="H60" s="11">
+        <f t="shared" si="6"/>
+        <v>46800</v>
+      </c>
+      <c r="I60" s="11">
+        <f t="shared" si="7"/>
+        <v>715</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="1">
+        <v>58</v>
+      </c>
+      <c r="B61" s="2">
+        <v>26620844</v>
+      </c>
+      <c r="C61" s="11">
+        <v>26397</v>
+      </c>
+      <c r="D61" s="11">
+        <v>24999.44</v>
+      </c>
+      <c r="E61" s="12">
+        <v>44285</v>
+      </c>
+      <c r="F61" s="11">
+        <f t="shared" si="4"/>
+        <v>1397.56</v>
+      </c>
+      <c r="G61" s="11">
+        <f t="shared" si="5"/>
+        <v>5.59036522418103</v>
+      </c>
+      <c r="H61" s="11">
+        <f t="shared" si="6"/>
+        <v>25999.4176</v>
+      </c>
+      <c r="I61" s="11">
+        <f t="shared" si="7"/>
+        <v>397.582399999999</v>
       </c>
     </row>
     <row r="62" spans="3:9">

--- a/WalletFundAddedStatement.xlsx
+++ b/WalletFundAddedStatement.xlsx
@@ -51,11 +51,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="[$-409]dd\-mmm\-yy;@"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="[$-409]dd\-mmm\-yy;@"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -88,17 +88,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -109,11 +108,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -125,24 +123,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,14 +155,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -172,23 +162,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,22 +208,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,6 +219,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,19 +264,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,13 +318,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,13 +408,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,49 +426,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,61 +438,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,35 +458,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,6 +489,48 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -517,30 +541,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,13 +560,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -578,130 +578,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -742,7 +742,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1067,9 +1067,9 @@
   <dimension ref="A1:I221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C61" sqref="C61"/>
+      <selection pane="bottomLeft" activeCell="C64" sqref="C64:D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1122,31 +1122,31 @@
       </c>
       <c r="C2" s="7">
         <f>SUM(C3:C221)</f>
-        <v>5503586</v>
+        <v>5814884</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(D3:D221)</f>
-        <v>5212239.8</v>
+        <v>5507240.2</v>
       </c>
       <c r="E2" s="8">
         <f>C2-D2</f>
-        <v>291346.2</v>
+        <v>307643.800000001</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F3:F221)</f>
-        <v>291346.2</v>
+        <v>307643.8</v>
       </c>
       <c r="G2" s="10">
         <f>C2-H2</f>
-        <v>82856.608</v>
+        <v>87354.1919999989</v>
       </c>
       <c r="H2" s="7">
         <f>SUM(H3:H221)</f>
-        <v>5420729.392</v>
+        <v>5727529.808</v>
       </c>
       <c r="I2" s="10">
         <f>SUM(I3:I221)</f>
-        <v>82856.6079999999</v>
+        <v>87354.1919999999</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:9">
@@ -1938,7 +1938,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" si="7"/>
-        <v>572.624000000003</v>
+        <v>572.623999999996</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2037,7 +2037,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" si="7"/>
-        <v>1685.156</v>
+        <v>1685.15599999999</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2136,7 +2136,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" si="7"/>
-        <v>1986.7712</v>
+        <v>1986.77119999999</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2202,7 +2202,7 @@
       </c>
       <c r="I34" s="11">
         <f t="shared" si="7"/>
-        <v>2225.07440000001</v>
+        <v>2225.07439999998</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2367,7 +2367,7 @@
       </c>
       <c r="I39" s="11">
         <f t="shared" si="7"/>
-        <v>1563.69839999999</v>
+        <v>1563.69840000001</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="I47" s="11">
         <f t="shared" si="7"/>
-        <v>476.656800000001</v>
+        <v>476.656799999997</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2862,7 +2862,7 @@
       </c>
       <c r="I54" s="11">
         <f t="shared" si="7"/>
-        <v>476.656800000001</v>
+        <v>476.656799999997</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2895,7 +2895,7 @@
       </c>
       <c r="I55" s="11">
         <f t="shared" si="7"/>
-        <v>539.958400000003</v>
+        <v>539.958399999996</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2928,7 +2928,7 @@
       </c>
       <c r="I56" s="11">
         <f t="shared" si="7"/>
-        <v>317.417600000001</v>
+        <v>317.417599999997</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2994,7 +2994,7 @@
       </c>
       <c r="I58" s="11">
         <f t="shared" si="7"/>
-        <v>476.656800000001</v>
+        <v>476.656799999997</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -3096,109 +3096,169 @@
         <v>397.582399999999</v>
       </c>
     </row>
-    <row r="62" spans="3:9">
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G62" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H62" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I62" s="11" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="3:9">
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G63" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H63" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I63" s="11" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="3:9">
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G64" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H64" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I64" s="11" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="3:9">
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G65" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H65" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I65" s="11" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="3:9">
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G66" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H66" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I66" s="11" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+    <row r="62" spans="1:9">
+      <c r="A62" s="1">
+        <v>59</v>
+      </c>
+      <c r="B62" s="2">
+        <v>26612971</v>
+      </c>
+      <c r="C62" s="11">
+        <v>47515</v>
+      </c>
+      <c r="D62" s="11">
+        <v>45000</v>
+      </c>
+      <c r="E62" s="12">
+        <v>44286</v>
+      </c>
+      <c r="F62" s="11">
+        <f t="shared" si="4"/>
+        <v>2515</v>
+      </c>
+      <c r="G62" s="11">
+        <f t="shared" si="5"/>
+        <v>5.58888888888889</v>
+      </c>
+      <c r="H62" s="11">
+        <f t="shared" si="6"/>
+        <v>46800</v>
+      </c>
+      <c r="I62" s="11">
+        <f t="shared" si="7"/>
+        <v>715</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="1">
+        <v>60</v>
+      </c>
+      <c r="B63" s="2">
+        <v>26645301</v>
+      </c>
+      <c r="C63" s="11">
+        <v>68583</v>
+      </c>
+      <c r="D63" s="11">
+        <v>64999.6</v>
+      </c>
+      <c r="E63" s="12">
+        <v>44287</v>
+      </c>
+      <c r="F63" s="11">
+        <f t="shared" si="4"/>
+        <v>3583.4</v>
+      </c>
+      <c r="G63" s="11">
+        <f t="shared" si="5"/>
+        <v>5.51295700281233</v>
+      </c>
+      <c r="H63" s="11">
+        <f t="shared" si="6"/>
+        <v>67599.584</v>
+      </c>
+      <c r="I63" s="11">
+        <f t="shared" si="7"/>
+        <v>983.415999999997</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="1">
+        <v>61</v>
+      </c>
+      <c r="B64" s="2">
+        <v>26657499</v>
+      </c>
+      <c r="C64" s="11">
+        <v>63308</v>
+      </c>
+      <c r="D64" s="11">
+        <v>60000.1</v>
+      </c>
+      <c r="E64" s="12">
+        <v>44288</v>
+      </c>
+      <c r="F64" s="11">
+        <f t="shared" si="4"/>
+        <v>3307.9</v>
+      </c>
+      <c r="G64" s="11">
+        <f t="shared" si="5"/>
+        <v>5.51315747807087</v>
+      </c>
+      <c r="H64" s="11">
+        <f t="shared" si="6"/>
+        <v>62400.104</v>
+      </c>
+      <c r="I64" s="11">
+        <f t="shared" si="7"/>
+        <v>907.896000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="1">
+        <v>62</v>
+      </c>
+      <c r="B65" s="2">
+        <v>26378669</v>
+      </c>
+      <c r="C65" s="11">
+        <v>52757</v>
+      </c>
+      <c r="D65" s="11">
+        <v>50000.08</v>
+      </c>
+      <c r="E65" s="12">
+        <v>44289</v>
+      </c>
+      <c r="F65" s="11">
+        <f t="shared" si="4"/>
+        <v>2756.92</v>
+      </c>
+      <c r="G65" s="11">
+        <f t="shared" si="5"/>
+        <v>5.51383117787011</v>
+      </c>
+      <c r="H65" s="11">
+        <f t="shared" si="6"/>
+        <v>52000.0832</v>
+      </c>
+      <c r="I65" s="11">
+        <f t="shared" si="7"/>
+        <v>756.916799999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="1">
+        <v>63</v>
+      </c>
+      <c r="B66" s="2">
+        <v>26666554</v>
+      </c>
+      <c r="C66" s="11">
+        <v>79135</v>
+      </c>
+      <c r="D66" s="11">
+        <v>75000.62</v>
+      </c>
+      <c r="E66" s="12">
+        <v>44290</v>
+      </c>
+      <c r="F66" s="11">
+        <f t="shared" si="4"/>
+        <v>4134.38</v>
+      </c>
+      <c r="G66" s="11">
+        <f t="shared" si="5"/>
+        <v>5.51246109698827</v>
+      </c>
+      <c r="H66" s="11">
+        <f t="shared" si="6"/>
+        <v>78000.6448</v>
+      </c>
+      <c r="I66" s="11">
+        <f t="shared" si="7"/>
+        <v>1134.35520000001</v>
       </c>
     </row>
     <row r="67" spans="3:9">

--- a/WalletFundAddedStatement.xlsx
+++ b/WalletFundAddedStatement.xlsx
@@ -53,9 +53,9 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="[$-409]dd\-mmm\-yy;@"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -87,17 +87,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -108,8 +102,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -117,22 +128,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,24 +157,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,24 +173,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,7 +182,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,9 +196,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,6 +264,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -276,7 +306,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,163 +438,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,32 +458,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,20 +491,43 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,11 +549,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,13 +560,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -578,130 +578,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1069,7 +1069,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C64" sqref="C64:D64"/>
+      <selection pane="bottomLeft" activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1122,31 +1122,31 @@
       </c>
       <c r="C2" s="7">
         <f>SUM(C3:C221)</f>
-        <v>5814884</v>
+        <v>6003542</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(D3:D221)</f>
-        <v>5507240.2</v>
+        <v>5686040.01</v>
       </c>
       <c r="E2" s="8">
         <f>C2-D2</f>
-        <v>307643.800000001</v>
+        <v>317501.990000001</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F3:F221)</f>
-        <v>307643.8</v>
+        <v>317501.99</v>
       </c>
       <c r="G2" s="10">
         <f>C2-H2</f>
-        <v>87354.1919999989</v>
+        <v>90060.3895999985</v>
       </c>
       <c r="H2" s="7">
         <f>SUM(H3:H221)</f>
-        <v>5727529.808</v>
+        <v>5913481.6104</v>
       </c>
       <c r="I2" s="10">
         <f>SUM(I3:I221)</f>
-        <v>87354.1919999999</v>
+        <v>90060.3895999999</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:9">
@@ -3261,73 +3261,108 @@
         <v>1134.35520000001</v>
       </c>
     </row>
-    <row r="67" spans="3:9">
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G67" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H67" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I67" s="11" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="3:9">
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G68" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H68" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I68" s="11" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="3:9">
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G69" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H69" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I69" s="11" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+    <row r="67" spans="1:9">
+      <c r="A67" s="1">
+        <v>64</v>
+      </c>
+      <c r="B67" s="2">
+        <v>26675755</v>
+      </c>
+      <c r="C67" s="11">
+        <v>49591</v>
+      </c>
+      <c r="D67" s="11">
+        <v>46999.38</v>
+      </c>
+      <c r="E67" s="12">
+        <v>44292</v>
+      </c>
+      <c r="F67" s="11">
+        <f t="shared" si="4"/>
+        <v>2591.62</v>
+      </c>
+      <c r="G67" s="11">
+        <f t="shared" si="5"/>
+        <v>5.51415784633755</v>
+      </c>
+      <c r="H67" s="11">
+        <f t="shared" si="6"/>
+        <v>48879.3552</v>
+      </c>
+      <c r="I67" s="11">
+        <f t="shared" si="7"/>
+        <v>711.644800000002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="1">
+        <v>65</v>
+      </c>
+      <c r="B68" s="2">
+        <v>26687600</v>
+      </c>
+      <c r="C68" s="11">
+        <v>52757</v>
+      </c>
+      <c r="D68" s="11">
+        <v>50000.08</v>
+      </c>
+      <c r="E68" s="12">
+        <v>44293</v>
+      </c>
+      <c r="F68" s="11">
+        <f t="shared" si="4"/>
+        <v>2756.92</v>
+      </c>
+      <c r="G68" s="11">
+        <f t="shared" si="5"/>
+        <v>5.51383117787011</v>
+      </c>
+      <c r="H68" s="11">
+        <f t="shared" si="6"/>
+        <v>52000.0832</v>
+      </c>
+      <c r="I68" s="11">
+        <f t="shared" si="7"/>
+        <v>756.916799999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="1">
+        <v>66</v>
+      </c>
+      <c r="B69" s="2">
+        <v>26689489</v>
+      </c>
+      <c r="C69" s="11">
+        <v>86310</v>
+      </c>
+      <c r="D69" s="11">
+        <v>81800.35</v>
+      </c>
+      <c r="E69" s="12">
+        <v>44294</v>
+      </c>
+      <c r="F69" s="11">
+        <f t="shared" si="4"/>
+        <v>4509.64999999999</v>
+      </c>
+      <c r="G69" s="11">
+        <f t="shared" si="5"/>
+        <v>5.51299597128862</v>
+      </c>
+      <c r="H69" s="11">
+        <f t="shared" si="6"/>
+        <v>85072.364</v>
+      </c>
+      <c r="I69" s="11">
+        <f t="shared" si="7"/>
+        <v>1237.63599999998</v>
       </c>
     </row>
     <row r="70" spans="3:9">
       <c r="C70" s="11"/>
       <c r="D70" s="11"/>
-      <c r="E70" s="12"/>
       <c r="F70" s="11" t="str">
         <f t="shared" si="4"/>
         <v/>

--- a/WalletFundAddedStatement.xlsx
+++ b/WalletFundAddedStatement.xlsx
@@ -51,11 +51,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="[$-409]dd\-mmm\-yy;@"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="[$-409]dd\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -87,8 +87,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -96,7 +148,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -111,72 +179,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -197,7 +203,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,20 +219,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,7 +264,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,169 +432,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,11 +458,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,37 +516,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,10 +560,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -578,130 +578,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -742,7 +742,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1067,9 +1067,9 @@
   <dimension ref="A1:I221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F71" sqref="F71"/>
+      <selection pane="bottomLeft" activeCell="J65" sqref="J65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1122,31 +1122,31 @@
       </c>
       <c r="C2" s="7">
         <f>SUM(C3:C221)</f>
-        <v>6003542</v>
+        <v>6244111</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(D3:D221)</f>
-        <v>5686040.01</v>
+        <v>5914038.58</v>
       </c>
       <c r="E2" s="8">
         <f>C2-D2</f>
-        <v>317501.990000001</v>
+        <v>330072.420000001</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F3:F221)</f>
-        <v>317501.99</v>
+        <v>330072.42</v>
       </c>
       <c r="G2" s="10">
         <f>C2-H2</f>
-        <v>90060.3895999985</v>
+        <v>93510.8767999979</v>
       </c>
       <c r="H2" s="7">
         <f>SUM(H3:H221)</f>
-        <v>5913481.6104</v>
+        <v>6150600.1232</v>
       </c>
       <c r="I2" s="10">
         <f>SUM(I3:I221)</f>
-        <v>90060.3895999999</v>
+        <v>93510.8767999999</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:9">
@@ -3360,90 +3360,140 @@
         <v>1237.63599999998</v>
       </c>
     </row>
-    <row r="70" spans="3:9">
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
-      <c r="F70" s="11" t="str">
+    <row r="70" spans="1:9">
+      <c r="A70" s="1">
+        <v>67</v>
+      </c>
+      <c r="B70" s="2">
+        <v>26718802</v>
+      </c>
+      <c r="C70" s="11">
+        <v>18992</v>
+      </c>
+      <c r="D70" s="11">
+        <v>17999.23</v>
+      </c>
+      <c r="E70" s="12">
+        <v>44297</v>
+      </c>
+      <c r="F70" s="11">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G70" s="11" t="str">
+        <v>992.77</v>
+      </c>
+      <c r="G70" s="11">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H70" s="11" t="str">
+        <v>5.51562483506239</v>
+      </c>
+      <c r="H70" s="11">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I70" s="11" t="str">
+        <v>18719.1992</v>
+      </c>
+      <c r="I70" s="11">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="3:9">
-      <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="11" t="str">
+        <v>272.800800000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="1">
+        <v>68</v>
+      </c>
+      <c r="B71" s="2">
+        <v>26715231</v>
+      </c>
+      <c r="C71" s="11">
+        <v>31654</v>
+      </c>
+      <c r="D71" s="11">
+        <v>30000.05</v>
+      </c>
+      <c r="E71" s="12">
+        <v>44297</v>
+      </c>
+      <c r="F71" s="11">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G71" s="11" t="str">
+        <v>1653.95</v>
+      </c>
+      <c r="G71" s="11">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H71" s="11" t="str">
+        <v>5.51315747807087</v>
+      </c>
+      <c r="H71" s="11">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I71" s="11" t="str">
+        <v>31200.052</v>
+      </c>
+      <c r="I71" s="11">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="3:9">
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="11" t="str">
+        <v>453.948</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="1">
+        <v>69</v>
+      </c>
+      <c r="B72" s="2">
+        <v>26724015</v>
+      </c>
+      <c r="C72" s="11">
+        <v>84410</v>
+      </c>
+      <c r="D72" s="11">
+        <v>79999.13</v>
+      </c>
+      <c r="E72" s="12">
+        <v>44298</v>
+      </c>
+      <c r="F72" s="11">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G72" s="11" t="str">
+        <v>4410.87</v>
+      </c>
+      <c r="G72" s="11">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H72" s="11" t="str">
+        <v>5.51364746091613</v>
+      </c>
+      <c r="H72" s="11">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I72" s="11" t="str">
+        <v>83199.0952</v>
+      </c>
+      <c r="I72" s="11">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="3:9">
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="11" t="str">
+        <v>1210.90479999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="1">
+        <v>70</v>
+      </c>
+      <c r="B73" s="2">
+        <v>26744506</v>
+      </c>
+      <c r="C73" s="11">
+        <v>105513</v>
+      </c>
+      <c r="D73" s="11">
+        <v>100000.16</v>
+      </c>
+      <c r="E73" s="12">
+        <v>44299</v>
+      </c>
+      <c r="F73" s="11">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G73" s="11" t="str">
+        <v>5512.84</v>
+      </c>
+      <c r="G73" s="11">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H73" s="11" t="str">
+        <v>5.51283117947011</v>
+      </c>
+      <c r="H73" s="11">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I73" s="11" t="str">
+        <v>104000.1664</v>
+      </c>
+      <c r="I73" s="11">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="3:9">
+        <v>1512.8336</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="1"/>
       <c r="C74" s="11"/>
       <c r="D74" s="11"/>
       <c r="E74" s="12"/>
@@ -3632,7 +3682,9 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="5:9">
+    <row r="83" spans="3:9">
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
       <c r="E83" s="12"/>
       <c r="F83" s="11" t="str">
         <f t="shared" ref="F83:F146" si="8">IF(B83="","",C83-D83)</f>
@@ -3651,7 +3703,9 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="5:9">
+    <row r="84" spans="3:9">
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
       <c r="E84" s="12"/>
       <c r="F84" s="11" t="str">
         <f t="shared" si="8"/>
@@ -3670,7 +3724,9 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="5:9">
+    <row r="85" spans="3:9">
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
       <c r="E85" s="12"/>
       <c r="F85" s="11" t="str">
         <f t="shared" si="8"/>
@@ -3689,7 +3745,10 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="6:9">
+    <row r="86" spans="3:9">
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="12"/>
       <c r="F86" s="11" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -3707,7 +3766,10 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="6:9">
+    <row r="87" spans="3:9">
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="12"/>
       <c r="F87" s="11" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -3725,7 +3787,10 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="6:9">
+    <row r="88" spans="3:9">
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="12"/>
       <c r="F88" s="11" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -3743,7 +3808,10 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="6:9">
+    <row r="89" spans="3:9">
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="12"/>
       <c r="F89" s="11" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -3761,7 +3829,10 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="6:9">
+    <row r="90" spans="3:9">
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="12"/>
       <c r="F90" s="11" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -6149,6 +6220,10 @@
     <hyperlink ref="B3" r:id="rId1" display="25700791" tooltip="https://fiori.jioconnect.com/sap/bc/ui5_ui5/sap/zehys_dashboard/javascript:void(0);"/>
     <hyperlink ref="B9" r:id="rId1" display="25837282" tooltip="https://fiori.jioconnect.com/sap/bc/ui5_ui5/sap/zehys_dashboard/javascript:void(0);"/>
     <hyperlink ref="B8" r:id="rId1" display="25833013" tooltip="https://fiori.jioconnect.com/sap/bc/ui5_ui5/sap/zehys_dashboard/javascript:void(0);"/>
+    <hyperlink ref="B70" r:id="rId1" display="26718802" tooltip="https://fiori.jioconnect.com/sap/bc/ui5_ui5/sap/zehys_dashboard/javascript:void(0);"/>
+    <hyperlink ref="B71" r:id="rId1" display="26715231" tooltip="https://fiori.jioconnect.com/sap/bc/ui5_ui5/sap/zehys_dashboard/javascript:void(0);"/>
+    <hyperlink ref="B72" r:id="rId1" display="26724015" tooltip="https://fiori.jioconnect.com/sap/bc/ui5_ui5/sap/zehys_dashboard/javascript:void(0);"/>
+    <hyperlink ref="B73" r:id="rId1" display="26744506" tooltip="https://fiori.jioconnect.com/sap/bc/ui5_ui5/sap/zehys_dashboard/javascript:void(0);"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/WalletFundAddedStatement.xlsx
+++ b/WalletFundAddedStatement.xlsx
@@ -51,10 +51,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="[$-409]dd\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="23">
@@ -87,24 +87,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -116,8 +103,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,34 +119,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -179,16 +164,23 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,7 +195,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,7 +218,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,13 +226,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,7 +264,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,13 +354,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,67 +372,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,13 +414,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,61 +426,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,6 +455,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -473,26 +482,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,18 +510,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,9 +547,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,13 +560,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -578,130 +578,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1067,9 +1067,9 @@
   <dimension ref="A1:I221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J65" sqref="J65"/>
+      <selection pane="bottomLeft" activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1122,31 +1122,31 @@
       </c>
       <c r="C2" s="7">
         <f>SUM(C3:C221)</f>
-        <v>6244111</v>
+        <v>6465584</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(D3:D221)</f>
-        <v>5914038.58</v>
+        <v>6123939.63</v>
       </c>
       <c r="E2" s="8">
         <f>C2-D2</f>
-        <v>330072.420000001</v>
+        <v>341644.370000001</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F3:F221)</f>
-        <v>330072.42</v>
+        <v>341644.37</v>
       </c>
       <c r="G2" s="10">
         <f>C2-H2</f>
-        <v>93510.8767999979</v>
+        <v>96686.7847999968</v>
       </c>
       <c r="H2" s="7">
         <f>SUM(H3:H221)</f>
-        <v>6150600.1232</v>
+        <v>6368897.2152</v>
       </c>
       <c r="I2" s="10">
         <f>SUM(I3:I221)</f>
-        <v>93510.8767999999</v>
+        <v>96686.7847999999</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:9">
@@ -3493,109 +3493,168 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="1"/>
-      <c r="C74" s="11"/>
-      <c r="D74" s="11"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="11" t="str">
+      <c r="A74" s="1">
+        <v>71</v>
+      </c>
+      <c r="B74" s="2">
+        <v>26731087</v>
+      </c>
+      <c r="C74" s="11">
+        <v>11923</v>
+      </c>
+      <c r="D74" s="11">
+        <v>11299.79</v>
+      </c>
+      <c r="E74" s="12">
+        <v>44301</v>
+      </c>
+      <c r="F74" s="11">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G74" s="11" t="str">
+        <v>623.209999999999</v>
+      </c>
+      <c r="G74" s="11">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H74" s="11" t="str">
+        <v>5.51523523888496</v>
+      </c>
+      <c r="H74" s="11">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I74" s="11" t="str">
+        <v>11751.7816</v>
+      </c>
+      <c r="I74" s="11">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="3:9">
-      <c r="C75" s="11"/>
-      <c r="D75" s="11"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="11" t="str">
+        <v>171.218399999998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="1">
+        <v>72</v>
+      </c>
+      <c r="B75" s="2">
+        <v>26755972</v>
+      </c>
+      <c r="C75" s="11">
+        <v>44949</v>
+      </c>
+      <c r="D75" s="11">
+        <v>42600.61</v>
+      </c>
+      <c r="E75" s="12">
+        <v>44302</v>
+      </c>
+      <c r="F75" s="11">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G75" s="11" t="str">
+        <v>2348.39</v>
+      </c>
+      <c r="G75" s="11">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H75" s="11" t="str">
+        <v>5.51257364624591</v>
+      </c>
+      <c r="H75" s="11">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I75" s="11" t="str">
+        <v>44304.6344</v>
+      </c>
+      <c r="I75" s="11">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="3:9">
-      <c r="C76" s="11"/>
-      <c r="D76" s="11"/>
-      <c r="E76" s="12"/>
-      <c r="F76" s="11" t="str">
+        <v>644.365599999997</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="1">
+        <v>73</v>
+      </c>
+      <c r="B76" s="2">
+        <v>26767217</v>
+      </c>
+      <c r="C76" s="11">
+        <v>63308</v>
+      </c>
+      <c r="D76" s="11">
+        <v>60000.1</v>
+      </c>
+      <c r="E76" s="12">
+        <v>44303</v>
+      </c>
+      <c r="F76" s="11">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G76" s="11" t="str">
+        <v>3307.9</v>
+      </c>
+      <c r="G76" s="11">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H76" s="11" t="str">
+        <v>5.51315747807087</v>
+      </c>
+      <c r="H76" s="11">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I76" s="11" t="str">
+        <v>62400.104</v>
+      </c>
+      <c r="I76" s="11">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="77" spans="3:9">
-      <c r="C77" s="11"/>
-      <c r="D77" s="11"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="11" t="str">
+        <v>907.896000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="1">
+        <v>74</v>
+      </c>
+      <c r="B77" s="2">
+        <v>26779891</v>
+      </c>
+      <c r="C77" s="11">
+        <v>52757</v>
+      </c>
+      <c r="D77" s="11">
+        <v>50000.08</v>
+      </c>
+      <c r="E77" s="12">
+        <v>44305</v>
+      </c>
+      <c r="F77" s="11">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G77" s="11" t="str">
+        <v>2756.92</v>
+      </c>
+      <c r="G77" s="11">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H77" s="11" t="str">
+        <v>5.51383117787011</v>
+      </c>
+      <c r="H77" s="11">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I77" s="11" t="str">
+        <v>52000.0832</v>
+      </c>
+      <c r="I77" s="11">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="78" spans="3:9">
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="11" t="str">
+        <v>756.916799999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="1">
+        <v>75</v>
+      </c>
+      <c r="B78" s="2">
+        <v>26750644</v>
+      </c>
+      <c r="C78" s="11">
+        <v>48536</v>
+      </c>
+      <c r="D78" s="11">
+        <v>46000.47</v>
+      </c>
+      <c r="E78" s="12">
+        <v>44305</v>
+      </c>
+      <c r="F78" s="11">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G78" s="11" t="str">
+        <v>2535.53</v>
+      </c>
+      <c r="G78" s="11">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H78" s="11" t="str">
+        <v>5.51196542122287</v>
+      </c>
+      <c r="H78" s="11">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I78" s="11" t="str">
+        <v>47840.4888</v>
+      </c>
+      <c r="I78" s="11">
         <f t="shared" si="7"/>
-        <v/>
+        <v>695.511199999994</v>
       </c>
     </row>
     <row r="79" spans="3:9">
@@ -6224,6 +6283,10 @@
     <hyperlink ref="B71" r:id="rId1" display="26715231" tooltip="https://fiori.jioconnect.com/sap/bc/ui5_ui5/sap/zehys_dashboard/javascript:void(0);"/>
     <hyperlink ref="B72" r:id="rId1" display="26724015" tooltip="https://fiori.jioconnect.com/sap/bc/ui5_ui5/sap/zehys_dashboard/javascript:void(0);"/>
     <hyperlink ref="B73" r:id="rId1" display="26744506" tooltip="https://fiori.jioconnect.com/sap/bc/ui5_ui5/sap/zehys_dashboard/javascript:void(0);"/>
+    <hyperlink ref="B75" r:id="rId1" display="26755972" tooltip="https://fiori.jioconnect.com/sap/bc/ui5_ui5/sap/zehys_dashboard/javascript:void(0);"/>
+    <hyperlink ref="B76" r:id="rId1" display="26767217" tooltip="https://fiori.jioconnect.com/sap/bc/ui5_ui5/sap/zehys_dashboard/javascript:void(0);"/>
+    <hyperlink ref="B77" r:id="rId1" display="26779891" tooltip="https://fiori.jioconnect.com/sap/bc/ui5_ui5/sap/zehys_dashboard/javascript:void(0);"/>
+    <hyperlink ref="B78" r:id="rId1" display="26750644" tooltip="https://fiori.jioconnect.com/sap/bc/ui5_ui5/sap/zehys_dashboard/javascript:void(0);"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/WalletFundAddedStatement.xlsx
+++ b/WalletFundAddedStatement.xlsx
@@ -51,13 +51,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="[$-409]dd\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,25 +87,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9.2"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,30 +132,40 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -164,7 +186,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -172,15 +194,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,22 +216,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,13 +232,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,7 +276,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -282,7 +294,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,79 +432,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,73 +444,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,15 +461,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -482,11 +479,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,22 +522,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,6 +544,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -560,7 +566,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -578,134 +584,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -744,6 +750,9 @@
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1067,9 +1076,9 @@
   <dimension ref="A1:I221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D80" sqref="D80"/>
+      <selection pane="bottomLeft" activeCell="F91" sqref="F91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1122,31 +1131,31 @@
       </c>
       <c r="C2" s="7">
         <f>SUM(C3:C221)</f>
-        <v>6465584</v>
+        <v>7140447</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(D3:D221)</f>
-        <v>6123939.63</v>
+        <v>6763541.49</v>
       </c>
       <c r="E2" s="8">
         <f>C2-D2</f>
-        <v>341644.370000001</v>
+        <v>376905.510000001</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F3:F221)</f>
-        <v>341644.37</v>
+        <v>376905.51</v>
       </c>
       <c r="G2" s="10">
         <f>C2-H2</f>
-        <v>96686.7847999968</v>
+        <v>106363.850399997</v>
       </c>
       <c r="H2" s="7">
         <f>SUM(H3:H221)</f>
-        <v>6368897.2152</v>
+        <v>7034083.1496</v>
       </c>
       <c r="I2" s="10">
         <f>SUM(I3:I221)</f>
-        <v>96686.7847999999</v>
+        <v>106363.8504</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:9">
@@ -3625,7 +3634,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="1">
+      <c r="A78" s="2">
         <v>75</v>
       </c>
       <c r="B78" s="2">
@@ -3657,259 +3666,404 @@
         <v>695.511199999994</v>
       </c>
     </row>
-    <row r="79" spans="3:9">
-      <c r="C79" s="11"/>
-      <c r="D79" s="11"/>
-      <c r="E79" s="12"/>
-      <c r="F79" s="11" t="str">
+    <row r="79" spans="1:9">
+      <c r="A79" s="2">
+        <v>76</v>
+      </c>
+      <c r="B79" s="2">
+        <v>26763879</v>
+      </c>
+      <c r="C79" s="11">
+        <v>21103</v>
+      </c>
+      <c r="D79" s="11">
+        <v>20000.03</v>
+      </c>
+      <c r="E79" s="12">
+        <v>44307</v>
+      </c>
+      <c r="F79" s="11">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G79" s="11" t="str">
+        <v>1102.97</v>
+      </c>
+      <c r="G79" s="11">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H79" s="11" t="str">
+        <v>5.51484172773741</v>
+      </c>
+      <c r="H79" s="11">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I79" s="11" t="str">
+        <v>20800.0312</v>
+      </c>
+      <c r="I79" s="11">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="80" spans="3:9">
-      <c r="C80" s="11"/>
-      <c r="D80" s="11"/>
-      <c r="E80" s="12"/>
-      <c r="F80" s="11" t="str">
+        <v>302.968799999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="2">
+        <v>77</v>
+      </c>
+      <c r="B80" s="2">
+        <v>26785136</v>
+      </c>
+      <c r="C80" s="11">
+        <v>52757</v>
+      </c>
+      <c r="D80" s="11">
+        <v>50000.08</v>
+      </c>
+      <c r="E80" s="12">
+        <v>44308</v>
+      </c>
+      <c r="F80" s="11">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G80" s="11" t="str">
+        <v>2756.92</v>
+      </c>
+      <c r="G80" s="11">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H80" s="11" t="str">
+        <v>5.51383117787011</v>
+      </c>
+      <c r="H80" s="11">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I80" s="11" t="str">
+        <v>52000.0832</v>
+      </c>
+      <c r="I80" s="11">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="3:9">
-      <c r="C81" s="11"/>
-      <c r="D81" s="11"/>
-      <c r="E81" s="12"/>
-      <c r="F81" s="11" t="str">
+        <v>756.916799999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="2">
+        <v>78</v>
+      </c>
+      <c r="B81" s="2">
+        <v>26801716</v>
+      </c>
+      <c r="C81" s="11">
+        <v>74492</v>
+      </c>
+      <c r="D81" s="11">
+        <v>70599.85</v>
+      </c>
+      <c r="E81" s="12">
+        <v>44308</v>
+      </c>
+      <c r="F81" s="11">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G81" s="11" t="str">
+        <v>3892.14999999999</v>
+      </c>
+      <c r="G81" s="11">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H81" s="11" t="str">
+        <v>5.51297205305676</v>
+      </c>
+      <c r="H81" s="11">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I81" s="11" t="str">
+        <v>73423.844</v>
+      </c>
+      <c r="I81" s="11">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="82" spans="3:9">
-      <c r="C82" s="11"/>
-      <c r="D82" s="11"/>
-      <c r="E82" s="12"/>
-      <c r="F82" s="11" t="str">
+        <v>1068.15599999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="2">
+        <v>79</v>
+      </c>
+      <c r="B82" s="2">
+        <v>26658659</v>
+      </c>
+      <c r="C82" s="11">
+        <v>47481</v>
+      </c>
+      <c r="D82" s="11">
+        <v>45000.57</v>
+      </c>
+      <c r="E82" s="12">
+        <v>44310</v>
+      </c>
+      <c r="F82" s="11">
         <f>IF(B82="","",C82-D82)</f>
-        <v/>
-      </c>
-      <c r="G82" s="11" t="str">
+        <v>2480.43</v>
+      </c>
+      <c r="G82" s="11">
         <f>IF(B82="","",F82/D82*100)</f>
-        <v/>
-      </c>
-      <c r="H82" s="11" t="str">
+        <v>5.51199684803993</v>
+      </c>
+      <c r="H82" s="11">
         <f>IF(B82="","",D82*1.04)</f>
-        <v/>
-      </c>
-      <c r="I82" s="11" t="str">
+        <v>46800.5928</v>
+      </c>
+      <c r="I82" s="11">
         <f>IF(B82="","",C82-H82)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="83" spans="3:9">
-      <c r="C83" s="11"/>
-      <c r="D83" s="11"/>
-      <c r="E83" s="12"/>
-      <c r="F83" s="11" t="str">
+        <v>680.407200000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="2">
+        <v>80</v>
+      </c>
+      <c r="B83" s="2">
+        <v>26817645</v>
+      </c>
+      <c r="C83" s="11">
+        <v>79135</v>
+      </c>
+      <c r="D83" s="11">
+        <v>75000.62</v>
+      </c>
+      <c r="E83" s="12">
+        <v>44311</v>
+      </c>
+      <c r="F83" s="11">
         <f t="shared" ref="F83:F146" si="8">IF(B83="","",C83-D83)</f>
-        <v/>
-      </c>
-      <c r="G83" s="11" t="str">
+        <v>4134.38</v>
+      </c>
+      <c r="G83" s="11">
         <f t="shared" ref="G83:G146" si="9">IF(B83="","",F83/D83*100)</f>
-        <v/>
-      </c>
-      <c r="H83" s="11" t="str">
+        <v>5.51246109698827</v>
+      </c>
+      <c r="H83" s="11">
         <f t="shared" ref="H83:H146" si="10">IF(B83="","",D83*1.04)</f>
-        <v/>
-      </c>
-      <c r="I83" s="11" t="str">
+        <v>78000.6448</v>
+      </c>
+      <c r="I83" s="11">
         <f t="shared" ref="I83:I146" si="11">IF(B83="","",C83-H83)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="84" spans="3:9">
-      <c r="C84" s="11"/>
-      <c r="D84" s="11"/>
-      <c r="E84" s="12"/>
-      <c r="F84" s="11" t="str">
+        <v>1134.35520000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="2">
+        <v>81</v>
+      </c>
+      <c r="B84" s="2">
+        <v>26816773</v>
+      </c>
+      <c r="C84" s="11">
+        <v>94962</v>
+      </c>
+      <c r="D84" s="11">
+        <v>90000.15</v>
+      </c>
+      <c r="E84" s="12">
+        <v>44312</v>
+      </c>
+      <c r="F84" s="11">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G84" s="11" t="str">
+        <v>4961.85000000001</v>
+      </c>
+      <c r="G84" s="11">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H84" s="11" t="str">
+        <v>5.51315747807088</v>
+      </c>
+      <c r="H84" s="11">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I84" s="11" t="str">
+        <v>93600.156</v>
+      </c>
+      <c r="I84" s="11">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="85" spans="3:9">
-      <c r="C85" s="11"/>
-      <c r="D85" s="11"/>
-      <c r="E85" s="12"/>
-      <c r="F85" s="11" t="str">
+        <v>1361.844</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="2">
+        <v>82</v>
+      </c>
+      <c r="B85" s="13">
+        <v>26846210</v>
+      </c>
+      <c r="C85" s="11">
+        <v>126616</v>
+      </c>
+      <c r="D85" s="11">
+        <v>120000.19</v>
+      </c>
+      <c r="E85" s="12">
+        <v>44314</v>
+      </c>
+      <c r="F85" s="11">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G85" s="11" t="str">
+        <v>6615.81</v>
+      </c>
+      <c r="G85" s="11">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H85" s="11" t="str">
+        <v>5.51316627082007</v>
+      </c>
+      <c r="H85" s="11">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I85" s="11" t="str">
+        <v>124800.1976</v>
+      </c>
+      <c r="I85" s="11">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="86" spans="3:9">
-      <c r="C86" s="11"/>
-      <c r="D86" s="11"/>
-      <c r="E86" s="12"/>
-      <c r="F86" s="11" t="str">
+        <v>1815.8024</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="2">
+        <v>83</v>
+      </c>
+      <c r="B86" s="13">
+        <v>26850036</v>
+      </c>
+      <c r="C86" s="11">
+        <v>25323</v>
+      </c>
+      <c r="D86" s="11">
+        <v>23999.64</v>
+      </c>
+      <c r="E86" s="12">
+        <v>44315</v>
+      </c>
+      <c r="F86" s="11">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G86" s="11" t="str">
+        <v>1323.36</v>
+      </c>
+      <c r="G86" s="11">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H86" s="11" t="str">
+        <v>5.51408271124067</v>
+      </c>
+      <c r="H86" s="11">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I86" s="11" t="str">
+        <v>24959.6256</v>
+      </c>
+      <c r="I86" s="11">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="87" spans="3:9">
-      <c r="C87" s="11"/>
-      <c r="D87" s="11"/>
-      <c r="E87" s="12"/>
-      <c r="F87" s="11" t="str">
+        <v>363.374400000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="2">
+        <v>84</v>
+      </c>
+      <c r="B87" s="13">
+        <v>26851112</v>
+      </c>
+      <c r="C87" s="11">
+        <v>47481</v>
+      </c>
+      <c r="D87" s="11">
+        <v>45000.57</v>
+      </c>
+      <c r="E87" s="12">
+        <v>44316</v>
+      </c>
+      <c r="F87" s="11">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G87" s="11" t="str">
+        <v>2480.43</v>
+      </c>
+      <c r="G87" s="11">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H87" s="11" t="str">
+        <v>5.51199684803993</v>
+      </c>
+      <c r="H87" s="11">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I87" s="11" t="str">
+        <v>46800.5928</v>
+      </c>
+      <c r="I87" s="11">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="88" spans="3:9">
-      <c r="C88" s="11"/>
-      <c r="D88" s="11"/>
-      <c r="E88" s="12"/>
-      <c r="F88" s="11" t="str">
+        <v>680.407200000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="2">
+        <v>85</v>
+      </c>
+      <c r="B88" s="13">
+        <v>26862032</v>
+      </c>
+      <c r="C88" s="11">
+        <v>42205</v>
+      </c>
+      <c r="D88" s="11">
+        <v>40000.06</v>
+      </c>
+      <c r="E88" s="12">
+        <v>44318</v>
+      </c>
+      <c r="F88" s="11">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G88" s="11" t="str">
+        <v>2204.94</v>
+      </c>
+      <c r="G88" s="11">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H88" s="11" t="str">
+        <v>5.51234173148741</v>
+      </c>
+      <c r="H88" s="11">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I88" s="11" t="str">
+        <v>41600.0624</v>
+      </c>
+      <c r="I88" s="11">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="89" spans="3:9">
-      <c r="C89" s="11"/>
-      <c r="D89" s="11"/>
-      <c r="E89" s="12"/>
-      <c r="F89" s="11" t="str">
+        <v>604.937599999997</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="2">
+        <v>86</v>
+      </c>
+      <c r="B89" s="13">
+        <v>26868404</v>
+      </c>
+      <c r="C89" s="11">
+        <v>31654</v>
+      </c>
+      <c r="D89" s="11">
+        <v>30000.05</v>
+      </c>
+      <c r="E89" s="12">
+        <v>44319</v>
+      </c>
+      <c r="F89" s="11">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G89" s="11" t="str">
+        <v>1653.95</v>
+      </c>
+      <c r="G89" s="11">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H89" s="11" t="str">
+        <v>5.51315747807087</v>
+      </c>
+      <c r="H89" s="11">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I89" s="11" t="str">
+        <v>31200.052</v>
+      </c>
+      <c r="I89" s="11">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="90" spans="3:9">
-      <c r="C90" s="11"/>
-      <c r="D90" s="11"/>
-      <c r="E90" s="12"/>
-      <c r="F90" s="11" t="str">
+        <v>453.948</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="2">
+        <v>87</v>
+      </c>
+      <c r="B90" s="13">
+        <v>26844283</v>
+      </c>
+      <c r="C90" s="11">
+        <v>31654</v>
+      </c>
+      <c r="D90" s="11">
+        <v>30000.05</v>
+      </c>
+      <c r="E90" s="12">
+        <v>44320</v>
+      </c>
+      <c r="F90" s="11">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G90" s="11" t="str">
+        <v>1653.95</v>
+      </c>
+      <c r="G90" s="11">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H90" s="11" t="str">
+        <v>5.51315747807087</v>
+      </c>
+      <c r="H90" s="11">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I90" s="11" t="str">
+        <v>31200.052</v>
+      </c>
+      <c r="I90" s="11">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="91" spans="6:9">
+        <v>453.948</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9">
+      <c r="B91" s="13"/>
       <c r="F91" s="11" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -3927,7 +4081,8 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="6:9">
+    <row r="92" spans="2:9">
+      <c r="B92" s="13"/>
       <c r="F92" s="11" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -3945,7 +4100,8 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="6:9">
+    <row r="93" spans="2:9">
+      <c r="B93" s="13"/>
       <c r="F93" s="11" t="str">
         <f t="shared" si="8"/>
         <v/>

--- a/WalletFundAddedStatement.xlsx
+++ b/WalletFundAddedStatement.xlsx
@@ -93,54 +93,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,7 +109,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,11 +137,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -187,9 +194,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -209,20 +216,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -232,6 +225,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,7 +270,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -282,7 +294,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,19 +432,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,139 +450,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,6 +461,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -475,6 +493,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,55 +546,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,7 +566,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -584,130 +584,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1078,7 +1078,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F91" sqref="F91"/>
+      <selection pane="bottomLeft" activeCell="E94" sqref="E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1131,31 +1131,31 @@
       </c>
       <c r="C2" s="7">
         <f>SUM(C3:C221)</f>
-        <v>7140447</v>
+        <v>7511320</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(D3:D221)</f>
-        <v>6763541.49</v>
+        <v>7115037.39</v>
       </c>
       <c r="E2" s="8">
         <f>C2-D2</f>
-        <v>376905.510000001</v>
+        <v>396282.61</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F3:F221)</f>
-        <v>376905.51</v>
+        <v>396282.61</v>
       </c>
       <c r="G2" s="10">
         <f>C2-H2</f>
-        <v>106363.850399997</v>
+        <v>111681.114399998</v>
       </c>
       <c r="H2" s="7">
         <f>SUM(H3:H221)</f>
-        <v>7034083.1496</v>
+        <v>7399638.8856</v>
       </c>
       <c r="I2" s="10">
         <f>SUM(I3:I221)</f>
-        <v>106363.8504</v>
+        <v>111681.1144</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:9">
@@ -4062,61 +4062,103 @@
         <v>453.948</v>
       </c>
     </row>
-    <row r="91" spans="2:9">
-      <c r="B91" s="13"/>
-      <c r="F91" s="11" t="str">
+    <row r="91" spans="1:9">
+      <c r="A91" s="2">
+        <v>88</v>
+      </c>
+      <c r="B91" s="13">
+        <v>26878451</v>
+      </c>
+      <c r="C91" s="11">
+        <v>46426</v>
+      </c>
+      <c r="D91" s="11">
+        <v>44000.67</v>
+      </c>
+      <c r="E91" s="12">
+        <v>44321</v>
+      </c>
+      <c r="F91" s="11">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G91" s="11" t="str">
+        <v>2425.33</v>
+      </c>
+      <c r="G91" s="11">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H91" s="11" t="str">
+        <v>5.51202970318407</v>
+      </c>
+      <c r="H91" s="11">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I91" s="11" t="str">
+        <v>45760.6968</v>
+      </c>
+      <c r="I91" s="11">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="92" spans="2:9">
-      <c r="B92" s="13"/>
-      <c r="F92" s="11" t="str">
+        <v>665.303200000002</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="2">
+        <v>89</v>
+      </c>
+      <c r="B92" s="13">
+        <v>26883517</v>
+      </c>
+      <c r="C92" s="11">
+        <v>211026</v>
+      </c>
+      <c r="D92" s="11">
+        <v>200000.32</v>
+      </c>
+      <c r="E92" s="12">
+        <v>44322</v>
+      </c>
+      <c r="F92" s="11">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G92" s="11" t="str">
+        <v>11025.68</v>
+      </c>
+      <c r="G92" s="11">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H92" s="11" t="str">
+        <v>5.51283117947011</v>
+      </c>
+      <c r="H92" s="11">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I92" s="11" t="str">
+        <v>208000.3328</v>
+      </c>
+      <c r="I92" s="11">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="93" spans="2:9">
-      <c r="B93" s="13"/>
-      <c r="F93" s="11" t="str">
+        <v>3025.6672</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="2">
+        <v>90</v>
+      </c>
+      <c r="B93" s="13">
+        <v>26903291</v>
+      </c>
+      <c r="C93" s="11">
+        <v>113421</v>
+      </c>
+      <c r="D93" s="11">
+        <v>107494.91</v>
+      </c>
+      <c r="E93" s="12">
+        <v>44324</v>
+      </c>
+      <c r="F93" s="11">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G93" s="11" t="str">
+        <v>5926.09</v>
+      </c>
+      <c r="G93" s="11">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H93" s="11" t="str">
+        <v>5.5129028900066</v>
+      </c>
+      <c r="H93" s="11">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I93" s="11" t="str">
+        <v>111794.7064</v>
+      </c>
+      <c r="I93" s="11">
         <f t="shared" si="11"/>
-        <v/>
+        <v>1626.29359999999</v>
       </c>
     </row>
     <row r="94" spans="6:9">

--- a/WalletFundAddedStatement.xlsx
+++ b/WalletFundAddedStatement.xlsx
@@ -52,9 +52,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="[$-409]dd\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="24">
@@ -94,29 +94,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,24 +115,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,15 +124,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,9 +148,40 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -194,14 +195,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,24 +223,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,7 +270,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -282,55 +372,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,13 +390,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,31 +414,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,19 +438,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,31 +450,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,24 +461,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -497,32 +479,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,18 +509,55 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,7 +566,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -584,134 +584,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -750,6 +750,9 @@
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1076,9 +1079,9 @@
   <dimension ref="A1:I221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E94" sqref="E94"/>
+      <selection pane="bottomLeft" activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1131,31 +1134,31 @@
       </c>
       <c r="C2" s="7">
         <f>SUM(C3:C221)</f>
-        <v>7511320</v>
+        <v>7628302</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(D3:D221)</f>
-        <v>7115037.39</v>
+        <v>7225907.09</v>
       </c>
       <c r="E2" s="8">
         <f>C2-D2</f>
-        <v>396282.61</v>
+        <v>402394.91</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F3:F221)</f>
-        <v>396282.61</v>
+        <v>402394.91</v>
       </c>
       <c r="G2" s="10">
         <f>C2-H2</f>
-        <v>111681.114399998</v>
+        <v>113358.626399998</v>
       </c>
       <c r="H2" s="7">
         <f>SUM(H3:H221)</f>
-        <v>7399638.8856</v>
+        <v>7514943.3736</v>
       </c>
       <c r="I2" s="10">
         <f>SUM(I3:I221)</f>
-        <v>111681.1144</v>
+        <v>113358.6264</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:9">
@@ -4161,43 +4164,75 @@
         <v>1626.29359999999</v>
       </c>
     </row>
-    <row r="94" spans="6:9">
-      <c r="F94" s="11" t="str">
+    <row r="94" spans="1:9">
+      <c r="A94" s="2">
+        <v>91</v>
+      </c>
+      <c r="B94" s="14">
+        <v>26888473</v>
+      </c>
+      <c r="C94" s="11">
+        <v>16745</v>
+      </c>
+      <c r="D94" s="11">
+        <v>15870.05</v>
+      </c>
+      <c r="E94" s="12">
+        <v>44329</v>
+      </c>
+      <c r="F94" s="11">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G94" s="11" t="str">
+        <v>874.950000000001</v>
+      </c>
+      <c r="G94" s="11">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H94" s="11" t="str">
+        <v>5.51321514424971</v>
+      </c>
+      <c r="H94" s="11">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I94" s="11" t="str">
+        <v>16504.852</v>
+      </c>
+      <c r="I94" s="11">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="95" spans="6:9">
-      <c r="F95" s="11" t="str">
+        <v>240.148000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="2">
+        <v>92</v>
+      </c>
+      <c r="B95" s="14">
+        <v>26912162</v>
+      </c>
+      <c r="C95" s="11">
+        <v>100237</v>
+      </c>
+      <c r="D95" s="11">
+        <v>94999.65</v>
+      </c>
+      <c r="E95" s="12">
+        <v>44329</v>
+      </c>
+      <c r="F95" s="11">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G95" s="11" t="str">
+        <v>5237.35000000001</v>
+      </c>
+      <c r="G95" s="11">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H95" s="11" t="str">
+        <v>5.51302031112747</v>
+      </c>
+      <c r="H95" s="11">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I95" s="11" t="str">
+        <v>98799.636</v>
+      </c>
+      <c r="I95" s="11">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="96" spans="6:9">
+        <v>1437.364</v>
+      </c>
+    </row>
+    <row r="96" spans="3:9">
+      <c r="C96" s="11"/>
+      <c r="E96" s="12"/>
       <c r="F96" s="11" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4215,7 +4250,8 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="6:9">
+    <row r="97" spans="3:9">
+      <c r="C97" s="11"/>
       <c r="F97" s="11" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4233,7 +4269,8 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="6:9">
+    <row r="98" spans="3:9">
+      <c r="C98" s="11"/>
       <c r="F98" s="11" t="str">
         <f t="shared" si="8"/>
         <v/>

--- a/WalletFundAddedStatement.xlsx
+++ b/WalletFundAddedStatement.xlsx
@@ -51,11 +51,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="[$-409]dd\-mmm\-yy;@"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="[$-409]dd\-mmm\-yy;@"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -94,15 +94,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -115,16 +122,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,17 +138,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,23 +155,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,7 +170,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -203,14 +179,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,6 +194,30 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,19 +270,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,7 +306,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,37 +372,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,73 +390,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,19 +414,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,32 +461,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -529,11 +503,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,13 +566,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -587,131 +587,131 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -748,11 +748,8 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1079,9 +1076,9 @@
   <dimension ref="A1:I221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E97" sqref="E97"/>
+      <selection pane="bottomLeft" activeCell="G96" sqref="G96:G108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1134,31 +1131,31 @@
       </c>
       <c r="C2" s="7">
         <f>SUM(C3:C221)</f>
-        <v>7628302</v>
+        <v>8734035</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(D3:D221)</f>
-        <v>7225907.09</v>
+        <v>8271942.37</v>
       </c>
       <c r="E2" s="8">
         <f>C2-D2</f>
-        <v>402394.91</v>
+        <v>462092.630000001</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F3:F221)</f>
-        <v>402394.91</v>
+        <v>462092.63</v>
       </c>
       <c r="G2" s="10">
         <f>C2-H2</f>
-        <v>113358.626399998</v>
+        <v>131214.935199995</v>
       </c>
       <c r="H2" s="7">
         <f>SUM(H3:H221)</f>
-        <v>7514943.3736</v>
+        <v>8602820.06480001</v>
       </c>
       <c r="I2" s="10">
         <f>SUM(I3:I221)</f>
-        <v>113358.6264</v>
+        <v>131214.9352</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:9">
@@ -4168,7 +4165,7 @@
       <c r="A94" s="2">
         <v>91</v>
       </c>
-      <c r="B94" s="14">
+      <c r="B94" s="13">
         <v>26888473</v>
       </c>
       <c r="C94" s="11">
@@ -4201,7 +4198,7 @@
       <c r="A95" s="2">
         <v>92</v>
       </c>
-      <c r="B95" s="14">
+      <c r="B95" s="13">
         <v>26912162</v>
       </c>
       <c r="C95" s="11">
@@ -4226,246 +4223,437 @@
         <v>98799.636</v>
       </c>
       <c r="I95" s="11">
+        <f t="shared" ref="I95:I106" si="12">IF(B95="","",C95-H95)</f>
+        <v>1437.364</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="2">
+        <v>93</v>
+      </c>
+      <c r="B96" s="13">
+        <v>26946901</v>
+      </c>
+      <c r="C96" s="11">
+        <v>94962</v>
+      </c>
+      <c r="D96" s="11">
+        <v>90000.15</v>
+      </c>
+      <c r="E96" s="12">
+        <v>44332</v>
+      </c>
+      <c r="F96" s="11">
+        <f t="shared" si="8"/>
+        <v>4961.85000000001</v>
+      </c>
+      <c r="G96" s="11">
+        <f t="shared" si="9"/>
+        <v>5.51315747807088</v>
+      </c>
+      <c r="H96" s="11">
+        <f t="shared" si="10"/>
+        <v>93600.156</v>
+      </c>
+      <c r="I96" s="11">
+        <f t="shared" si="12"/>
+        <v>1361.844</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="2">
+        <v>94</v>
+      </c>
+      <c r="B97" s="13">
+        <v>26955601</v>
+      </c>
+      <c r="C97" s="11">
+        <v>105513</v>
+      </c>
+      <c r="D97" s="11">
+        <v>100000.16</v>
+      </c>
+      <c r="E97" s="12">
+        <v>44334</v>
+      </c>
+      <c r="F97" s="11">
+        <f t="shared" si="8"/>
+        <v>5512.84</v>
+      </c>
+      <c r="G97" s="11">
+        <f t="shared" ref="G97:G108" si="13">IF(B97="","",F97/D97*100)</f>
+        <v>5.51283117947011</v>
+      </c>
+      <c r="H97" s="11">
+        <f t="shared" si="10"/>
+        <v>104000.1664</v>
+      </c>
+      <c r="I97" s="11">
+        <f t="shared" si="12"/>
+        <v>1512.8336</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="2">
+        <v>95</v>
+      </c>
+      <c r="B98" s="13">
+        <v>26964719</v>
+      </c>
+      <c r="C98" s="11">
+        <v>105513</v>
+      </c>
+      <c r="D98" s="11">
+        <v>100000.16</v>
+      </c>
+      <c r="E98" s="12">
+        <v>44336</v>
+      </c>
+      <c r="F98" s="11">
+        <f t="shared" si="8"/>
+        <v>5512.84</v>
+      </c>
+      <c r="G98" s="11">
+        <f t="shared" si="13"/>
+        <v>5.51283117947011</v>
+      </c>
+      <c r="H98" s="11">
+        <f t="shared" si="10"/>
+        <v>104000.1664</v>
+      </c>
+      <c r="I98" s="11">
+        <f t="shared" si="12"/>
+        <v>1512.8336</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="2">
+        <v>96</v>
+      </c>
+      <c r="B99" s="13">
+        <v>27000820</v>
+      </c>
+      <c r="C99" s="11">
+        <v>42205</v>
+      </c>
+      <c r="D99" s="11">
+        <v>39883.76</v>
+      </c>
+      <c r="E99" s="12">
+        <v>44343</v>
+      </c>
+      <c r="F99" s="11">
+        <f t="shared" si="8"/>
+        <v>2321.24</v>
+      </c>
+      <c r="G99" s="11">
+        <f t="shared" si="13"/>
+        <v>5.82001295765494</v>
+      </c>
+      <c r="H99" s="11">
+        <f t="shared" si="10"/>
+        <v>41479.1104</v>
+      </c>
+      <c r="I99" s="11">
+        <f t="shared" si="12"/>
+        <v>725.889599999995</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="2">
+        <v>97</v>
+      </c>
+      <c r="B100" s="13">
+        <v>27007840</v>
+      </c>
+      <c r="C100" s="11">
+        <v>63308</v>
+      </c>
+      <c r="D100" s="11">
+        <v>59826.05</v>
+      </c>
+      <c r="E100" s="12">
+        <v>44343</v>
+      </c>
+      <c r="F100" s="11">
+        <f t="shared" si="8"/>
+        <v>3481.95</v>
+      </c>
+      <c r="G100" s="11">
+        <f t="shared" si="13"/>
+        <v>5.82012350807048</v>
+      </c>
+      <c r="H100" s="11">
+        <f t="shared" si="10"/>
+        <v>62219.092</v>
+      </c>
+      <c r="I100" s="11">
+        <f t="shared" si="12"/>
+        <v>1088.908</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="2">
+        <v>98</v>
+      </c>
+      <c r="B101" s="13">
+        <v>27028014</v>
+      </c>
+      <c r="C101" s="11">
+        <v>63308</v>
+      </c>
+      <c r="D101" s="11">
+        <v>59826.05</v>
+      </c>
+      <c r="E101" s="12">
+        <v>44346</v>
+      </c>
+      <c r="F101" s="11">
+        <f t="shared" si="8"/>
+        <v>3481.95</v>
+      </c>
+      <c r="G101" s="11">
+        <f t="shared" si="13"/>
+        <v>5.82012350807048</v>
+      </c>
+      <c r="H101" s="11">
+        <f t="shared" si="10"/>
+        <v>62219.092</v>
+      </c>
+      <c r="I101" s="11">
+        <f t="shared" si="12"/>
+        <v>1088.908</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="2">
+        <v>99</v>
+      </c>
+      <c r="B102" s="13">
+        <v>27017668</v>
+      </c>
+      <c r="C102" s="11">
+        <v>100237</v>
+      </c>
+      <c r="D102" s="11">
+        <v>94723.97</v>
+      </c>
+      <c r="E102" s="12">
+        <v>44348</v>
+      </c>
+      <c r="F102" s="11">
+        <f t="shared" si="8"/>
+        <v>5513.03</v>
+      </c>
+      <c r="G102" s="11">
+        <f t="shared" si="13"/>
+        <v>5.82010023439685</v>
+      </c>
+      <c r="H102" s="11">
+        <f t="shared" si="10"/>
+        <v>98512.9288</v>
+      </c>
+      <c r="I102" s="11">
+        <f t="shared" si="12"/>
+        <v>1724.07119999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="2">
+        <v>100</v>
+      </c>
+      <c r="B103" s="13">
+        <v>27042419</v>
+      </c>
+      <c r="C103" s="11">
+        <v>58707</v>
+      </c>
+      <c r="D103" s="11">
+        <v>55478.09</v>
+      </c>
+      <c r="E103" s="12">
+        <v>44349</v>
+      </c>
+      <c r="F103" s="11">
+        <f t="shared" si="8"/>
+        <v>3228.91</v>
+      </c>
+      <c r="G103" s="11">
+        <f t="shared" si="13"/>
+        <v>5.82015350564521</v>
+      </c>
+      <c r="H103" s="11">
+        <f t="shared" si="10"/>
+        <v>57697.2136</v>
+      </c>
+      <c r="I103" s="11">
+        <f t="shared" si="12"/>
+        <v>1009.7864</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="2">
+        <v>101</v>
+      </c>
+      <c r="B104" s="13">
+        <v>27059610</v>
+      </c>
+      <c r="C104" s="11">
+        <v>147718</v>
+      </c>
+      <c r="D104" s="11">
+        <v>139593.58</v>
+      </c>
+      <c r="E104" s="12">
+        <v>44350</v>
+      </c>
+      <c r="F104" s="11">
+        <f t="shared" si="8"/>
+        <v>8124.42000000001</v>
+      </c>
+      <c r="G104" s="11">
+        <f t="shared" si="13"/>
+        <v>5.82005275600784</v>
+      </c>
+      <c r="H104" s="11">
+        <f t="shared" si="10"/>
+        <v>145177.3232</v>
+      </c>
+      <c r="I104" s="11">
+        <f t="shared" si="12"/>
+        <v>2540.67680000002</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="2">
+        <v>102</v>
+      </c>
+      <c r="B105" s="13">
+        <v>27073832</v>
+      </c>
+      <c r="C105" s="11">
+        <v>105513</v>
+      </c>
+      <c r="D105" s="11">
+        <v>99709.81</v>
+      </c>
+      <c r="E105" s="12">
+        <v>44354</v>
+      </c>
+      <c r="F105" s="11">
+        <f t="shared" si="8"/>
+        <v>5803.19</v>
+      </c>
+      <c r="G105" s="11">
+        <f t="shared" si="13"/>
+        <v>5.8200792880861</v>
+      </c>
+      <c r="H105" s="11">
+        <f t="shared" si="10"/>
+        <v>103698.2024</v>
+      </c>
+      <c r="I105" s="11">
+        <f t="shared" si="12"/>
+        <v>1814.79760000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="2">
+        <v>103</v>
+      </c>
+      <c r="B106" s="13">
+        <v>27078151</v>
+      </c>
+      <c r="C106" s="11">
+        <v>12999</v>
+      </c>
+      <c r="D106" s="11">
+        <v>12284.04</v>
+      </c>
+      <c r="E106" s="12">
+        <v>44356</v>
+      </c>
+      <c r="F106" s="11">
+        <f t="shared" si="8"/>
+        <v>714.959999999999</v>
+      </c>
+      <c r="G106" s="11">
+        <f t="shared" si="13"/>
+        <v>5.82023503668174</v>
+      </c>
+      <c r="H106" s="11">
+        <f t="shared" si="10"/>
+        <v>12775.4016</v>
+      </c>
+      <c r="I106" s="11">
+        <f t="shared" si="12"/>
+        <v>223.598399999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="2">
+        <v>104</v>
+      </c>
+      <c r="B107" s="13">
+        <v>27100993</v>
+      </c>
+      <c r="C107" s="11">
+        <v>105513</v>
+      </c>
+      <c r="D107" s="11">
+        <v>99709.81</v>
+      </c>
+      <c r="E107" s="12">
+        <v>44356</v>
+      </c>
+      <c r="F107" s="11">
+        <f t="shared" si="8"/>
+        <v>5803.19</v>
+      </c>
+      <c r="G107" s="11">
+        <f t="shared" si="13"/>
+        <v>5.8200792880861</v>
+      </c>
+      <c r="H107" s="11">
+        <f t="shared" si="10"/>
+        <v>103698.2024</v>
+      </c>
+      <c r="I107" s="11">
+        <f t="shared" si="11"/>
+        <v>1814.79760000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="2">
+        <v>105</v>
+      </c>
+      <c r="B108" s="13">
+        <v>27120107</v>
+      </c>
+      <c r="C108" s="11">
+        <v>100237</v>
+      </c>
+      <c r="D108" s="11">
+        <v>94999.65</v>
+      </c>
+      <c r="E108" s="12">
+        <v>44359</v>
+      </c>
+      <c r="F108" s="11">
+        <f t="shared" si="8"/>
+        <v>5237.35000000001</v>
+      </c>
+      <c r="G108" s="11">
+        <f t="shared" si="13"/>
+        <v>5.51302031112747</v>
+      </c>
+      <c r="H108" s="11">
+        <f t="shared" si="10"/>
+        <v>98799.636</v>
+      </c>
+      <c r="I108" s="11">
         <f t="shared" si="11"/>
         <v>1437.364</v>
-      </c>
-    </row>
-    <row r="96" spans="3:9">
-      <c r="C96" s="11"/>
-      <c r="E96" s="12"/>
-      <c r="F96" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G96" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H96" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I96" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="97" spans="3:9">
-      <c r="C97" s="11"/>
-      <c r="F97" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G97" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H97" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I97" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="98" spans="3:9">
-      <c r="C98" s="11"/>
-      <c r="F98" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G98" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H98" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I98" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="99" spans="6:9">
-      <c r="F99" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G99" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H99" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I99" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="100" spans="6:9">
-      <c r="F100" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G100" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H100" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I100" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="101" spans="6:9">
-      <c r="F101" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G101" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H101" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I101" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="102" spans="6:9">
-      <c r="F102" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G102" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H102" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I102" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="103" spans="6:9">
-      <c r="F103" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G103" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H103" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I103" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="104" spans="6:9">
-      <c r="F104" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G104" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H104" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I104" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="105" spans="6:9">
-      <c r="F105" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G105" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H105" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I105" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="106" spans="6:9">
-      <c r="F106" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G106" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H106" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I106" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="107" spans="6:9">
-      <c r="F107" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G107" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H107" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I107" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="108" spans="6:9">
-      <c r="F108" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G108" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H108" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I108" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
       </c>
     </row>
     <row r="109" spans="6:9">
@@ -5154,1351 +5342,1351 @@
     </row>
     <row r="147" spans="6:9">
       <c r="F147" s="11" t="str">
-        <f t="shared" ref="F147:F210" si="12">IF(B147="","",C147-D147)</f>
+        <f t="shared" ref="F147:F210" si="14">IF(B147="","",C147-D147)</f>
         <v/>
       </c>
       <c r="G147" s="11" t="str">
-        <f t="shared" ref="G147:G210" si="13">IF(B147="","",F147/D147*100)</f>
+        <f t="shared" ref="G147:G210" si="15">IF(B147="","",F147/D147*100)</f>
         <v/>
       </c>
       <c r="H147" s="11" t="str">
-        <f t="shared" ref="H147:H210" si="14">IF(B147="","",D147*1.04)</f>
+        <f t="shared" ref="H147:H210" si="16">IF(B147="","",D147*1.04)</f>
         <v/>
       </c>
       <c r="I147" s="11" t="str">
-        <f t="shared" ref="I147:I210" si="15">IF(B147="","",C147-H147)</f>
+        <f t="shared" ref="I147:I210" si="17">IF(B147="","",C147-H147)</f>
         <v/>
       </c>
     </row>
     <row r="148" spans="6:9">
       <c r="F148" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G148" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H148" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I148" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="149" spans="6:9">
       <c r="F149" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G149" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H149" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I149" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="150" spans="6:9">
       <c r="F150" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G150" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H150" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I150" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="151" spans="6:9">
       <c r="F151" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G151" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H151" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I151" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="152" spans="6:9">
       <c r="F152" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G152" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H152" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I152" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="153" spans="6:9">
       <c r="F153" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G153" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H153" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I153" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="154" spans="6:9">
       <c r="F154" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G154" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H154" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I154" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="155" spans="6:9">
       <c r="F155" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G155" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H155" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I155" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="156" spans="6:9">
       <c r="F156" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G156" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H156" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I156" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="157" spans="6:9">
       <c r="F157" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G157" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H157" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I157" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="158" spans="6:9">
       <c r="F158" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G158" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H158" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I158" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="159" spans="6:9">
       <c r="F159" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G159" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H159" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I159" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="160" spans="6:9">
       <c r="F160" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G160" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H160" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I160" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="161" spans="6:9">
       <c r="F161" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G161" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H161" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I161" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="162" spans="6:9">
       <c r="F162" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G162" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H162" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I162" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="163" spans="6:9">
       <c r="F163" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G163" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H163" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I163" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="164" spans="6:9">
       <c r="F164" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G164" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H164" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I164" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="165" spans="6:9">
       <c r="F165" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G165" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H165" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I165" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="166" spans="6:9">
       <c r="F166" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G166" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H166" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I166" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="167" spans="6:9">
       <c r="F167" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G167" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H167" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I167" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="168" spans="6:9">
       <c r="F168" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G168" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H168" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I168" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="169" spans="6:9">
       <c r="F169" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G169" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H169" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I169" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="170" spans="6:9">
       <c r="F170" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G170" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H170" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I170" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="171" spans="6:9">
       <c r="F171" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G171" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H171" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I171" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="172" spans="6:9">
       <c r="F172" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G172" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H172" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I172" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="173" spans="6:9">
       <c r="F173" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G173" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H173" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I173" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="174" spans="6:9">
       <c r="F174" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G174" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H174" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I174" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="175" spans="6:9">
       <c r="F175" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G175" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H175" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I175" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="176" spans="6:9">
       <c r="F176" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G176" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H176" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I176" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="177" spans="6:9">
       <c r="F177" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G177" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H177" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I177" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="178" spans="6:9">
       <c r="F178" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G178" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H178" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I178" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="179" spans="6:9">
       <c r="F179" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G179" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H179" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I179" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="180" spans="6:9">
       <c r="F180" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G180" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H180" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I180" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="181" spans="6:9">
       <c r="F181" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G181" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H181" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I181" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="182" spans="6:9">
       <c r="F182" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G182" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H182" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I182" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="183" spans="6:9">
       <c r="F183" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G183" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H183" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I183" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="184" spans="6:9">
       <c r="F184" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G184" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H184" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I184" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="185" spans="6:9">
       <c r="F185" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G185" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H185" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I185" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="186" spans="6:9">
       <c r="F186" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G186" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H186" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I186" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="187" spans="6:9">
       <c r="F187" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G187" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H187" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I187" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="188" spans="6:9">
       <c r="F188" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G188" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H188" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I188" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="189" spans="6:9">
       <c r="F189" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G189" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H189" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I189" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="190" spans="6:9">
       <c r="F190" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G190" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H190" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I190" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="191" spans="6:9">
       <c r="F191" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G191" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H191" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I191" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="192" spans="6:9">
       <c r="F192" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G192" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H192" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I192" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="193" spans="6:9">
       <c r="F193" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G193" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H193" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I193" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="194" spans="6:9">
       <c r="F194" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G194" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H194" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I194" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="195" spans="6:9">
       <c r="F195" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G195" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H195" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I195" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="196" spans="6:9">
       <c r="F196" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G196" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H196" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I196" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="197" spans="6:9">
       <c r="F197" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G197" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H197" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I197" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="198" spans="6:9">
       <c r="F198" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G198" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H198" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I198" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="199" spans="6:9">
       <c r="F199" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G199" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H199" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I199" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="200" spans="6:9">
       <c r="F200" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G200" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H200" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I200" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="201" spans="6:9">
       <c r="F201" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G201" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H201" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I201" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="202" spans="6:9">
       <c r="F202" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G202" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H202" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I202" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="203" spans="6:9">
       <c r="F203" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G203" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H203" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I203" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="204" spans="6:9">
       <c r="F204" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G204" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H204" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I204" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="205" spans="6:9">
       <c r="F205" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G205" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H205" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I205" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="206" spans="6:9">
       <c r="F206" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G206" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H206" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I206" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="207" spans="6:9">
       <c r="F207" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G207" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H207" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I207" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="208" spans="6:9">
       <c r="F208" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G208" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H208" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I208" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="209" spans="6:9">
       <c r="F209" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G209" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H209" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I209" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="210" spans="6:9">
       <c r="F210" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G210" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H210" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I210" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="211" spans="6:9">
       <c r="F211" s="11" t="str">
-        <f t="shared" ref="F211:F221" si="16">IF(B211="","",C211-D211)</f>
+        <f t="shared" ref="F211:F221" si="18">IF(B211="","",C211-D211)</f>
         <v/>
       </c>
       <c r="G211" s="11" t="str">
-        <f t="shared" ref="G211:G221" si="17">IF(B211="","",F211/D211*100)</f>
+        <f t="shared" ref="G211:G221" si="19">IF(B211="","",F211/D211*100)</f>
         <v/>
       </c>
       <c r="H211" s="11" t="str">
-        <f t="shared" ref="H211:H221" si="18">IF(B211="","",D211*1.04)</f>
+        <f t="shared" ref="H211:H221" si="20">IF(B211="","",D211*1.04)</f>
         <v/>
       </c>
       <c r="I211" s="11" t="str">
-        <f t="shared" ref="I211:I221" si="19">IF(B211="","",C211-H211)</f>
+        <f t="shared" ref="I211:I221" si="21">IF(B211="","",C211-H211)</f>
         <v/>
       </c>
     </row>
     <row r="212" spans="6:9">
       <c r="F212" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="G212" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="H212" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I212" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="213" spans="6:9">
       <c r="F213" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="G213" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="H213" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I213" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="214" spans="6:9">
       <c r="F214" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="G214" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="H214" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I214" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="215" spans="6:9">
       <c r="F215" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="G215" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="H215" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I215" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="216" spans="6:9">
       <c r="F216" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="G216" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="H216" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I216" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="217" spans="6:9">
       <c r="F217" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="G217" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="H217" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I217" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="218" spans="6:9">
       <c r="F218" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="G218" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="H218" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I218" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="219" spans="6:9">
       <c r="F219" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="G219" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="H219" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I219" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="220" spans="6:9">
       <c r="F220" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="G220" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="H220" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I220" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="221" spans="6:9">
       <c r="F221" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="G221" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="H221" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I221" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>

--- a/WalletFundAddedStatement.xlsx
+++ b/WalletFundAddedStatement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7815"/>
+    <workbookView windowWidth="20490" windowHeight="7965"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,11 +51,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="[$-409]dd\-mmm\-yy;@"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="[$-409]dd\-mmm\-yy;@"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -94,7 +94,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -109,14 +146,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,9 +160,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,13 +190,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -177,23 +206,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,28 +230,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -270,7 +270,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -282,13 +360,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,19 +390,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,103 +438,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,25 +450,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,6 +461,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -483,37 +522,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,17 +531,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -555,9 +553,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,13 +566,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -584,130 +584,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -748,7 +748,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1076,9 +1076,9 @@
   <dimension ref="A1:I221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G96" sqref="G96:G108"/>
+      <selection pane="bottomLeft" activeCell="I118" sqref="I118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1131,31 +1131,31 @@
       </c>
       <c r="C2" s="7">
         <f>SUM(C3:C221)</f>
-        <v>8734035</v>
+        <v>9834432</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(D3:D221)</f>
-        <v>8271942.37</v>
+        <v>9316786.03678514</v>
       </c>
       <c r="E2" s="8">
         <f>C2-D2</f>
-        <v>462092.630000001</v>
+        <v>517645.963214859</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F3:F221)</f>
-        <v>462092.63</v>
+        <v>517645.963214861</v>
       </c>
       <c r="G2" s="10">
         <f>C2-H2</f>
-        <v>131214.935199995</v>
+        <v>144974.521743452</v>
       </c>
       <c r="H2" s="7">
         <f>SUM(H3:H221)</f>
-        <v>8602820.06480001</v>
+        <v>9689457.47825655</v>
       </c>
       <c r="I2" s="10">
         <f>SUM(I3:I221)</f>
-        <v>131214.9352</v>
+        <v>144974.521743455</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:9">
@@ -4337,26 +4337,27 @@
         <v>42205</v>
       </c>
       <c r="D99" s="11">
-        <v>39883.76</v>
+        <f>C99/1.0551</f>
+        <v>40000.9477774619</v>
       </c>
       <c r="E99" s="12">
         <v>44343</v>
       </c>
       <c r="F99" s="11">
         <f t="shared" si="8"/>
-        <v>2321.24</v>
+        <v>2204.05222253814</v>
       </c>
       <c r="G99" s="11">
         <f t="shared" si="13"/>
-        <v>5.82001295765494</v>
+        <v>5.50999999999999</v>
       </c>
       <c r="H99" s="11">
         <f t="shared" si="10"/>
-        <v>41479.1104</v>
+        <v>41600.9856885603</v>
       </c>
       <c r="I99" s="11">
         <f t="shared" si="12"/>
-        <v>725.889599999995</v>
+        <v>604.014311439671</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -4370,26 +4371,27 @@
         <v>63308</v>
       </c>
       <c r="D100" s="11">
-        <v>59826.05</v>
+        <f t="shared" ref="D100:D107" si="14">C100/1.0551</f>
+        <v>60001.8955549237</v>
       </c>
       <c r="E100" s="12">
         <v>44343</v>
       </c>
       <c r="F100" s="11">
         <f t="shared" si="8"/>
-        <v>3481.95</v>
+        <v>3306.10444507629</v>
       </c>
       <c r="G100" s="11">
         <f t="shared" si="13"/>
-        <v>5.82012350807048</v>
+        <v>5.50999999999999</v>
       </c>
       <c r="H100" s="11">
         <f t="shared" si="10"/>
-        <v>62219.092</v>
+        <v>62401.9713771207</v>
       </c>
       <c r="I100" s="11">
         <f t="shared" si="12"/>
-        <v>1088.908</v>
+        <v>906.028622879341</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -4403,26 +4405,27 @@
         <v>63308</v>
       </c>
       <c r="D101" s="11">
-        <v>59826.05</v>
+        <f t="shared" si="14"/>
+        <v>60001.8955549237</v>
       </c>
       <c r="E101" s="12">
         <v>44346</v>
       </c>
       <c r="F101" s="11">
         <f t="shared" si="8"/>
-        <v>3481.95</v>
+        <v>3306.10444507629</v>
       </c>
       <c r="G101" s="11">
         <f t="shared" si="13"/>
-        <v>5.82012350807048</v>
+        <v>5.50999999999999</v>
       </c>
       <c r="H101" s="11">
         <f t="shared" si="10"/>
-        <v>62219.092</v>
+        <v>62401.9713771207</v>
       </c>
       <c r="I101" s="11">
         <f t="shared" si="12"/>
-        <v>1088.908</v>
+        <v>906.028622879341</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -4436,26 +4439,27 @@
         <v>100237</v>
       </c>
       <c r="D102" s="11">
-        <v>94723.97</v>
+        <f t="shared" si="14"/>
+        <v>95002.3694436546</v>
       </c>
       <c r="E102" s="12">
         <v>44348</v>
       </c>
       <c r="F102" s="11">
         <f t="shared" si="8"/>
-        <v>5513.03</v>
+        <v>5234.63055634536</v>
       </c>
       <c r="G102" s="11">
         <f t="shared" si="13"/>
-        <v>5.82010023439685</v>
+        <v>5.50999999999999</v>
       </c>
       <c r="H102" s="11">
         <f t="shared" si="10"/>
-        <v>98512.9288</v>
+        <v>98802.4642214008</v>
       </c>
       <c r="I102" s="11">
-        <f t="shared" si="12"/>
-        <v>1724.07119999999</v>
+        <f t="shared" ref="I102:I116" si="15">IF(B102="","",C102-H102)</f>
+        <v>1434.53577859918</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -4469,26 +4473,27 @@
         <v>58707</v>
       </c>
       <c r="D103" s="11">
-        <v>55478.09</v>
+        <f t="shared" si="14"/>
+        <v>55641.1714529428</v>
       </c>
       <c r="E103" s="12">
         <v>44349</v>
       </c>
       <c r="F103" s="11">
         <f t="shared" si="8"/>
-        <v>3228.91</v>
+        <v>3065.82854705715</v>
       </c>
       <c r="G103" s="11">
         <f t="shared" si="13"/>
-        <v>5.82015350564521</v>
+        <v>5.51</v>
       </c>
       <c r="H103" s="11">
         <f t="shared" si="10"/>
-        <v>57697.2136</v>
+        <v>57866.8183110606</v>
       </c>
       <c r="I103" s="11">
-        <f t="shared" si="12"/>
-        <v>1009.7864</v>
+        <f t="shared" si="15"/>
+        <v>840.181688939432</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -4502,26 +4507,27 @@
         <v>147718</v>
       </c>
       <c r="D104" s="11">
-        <v>139593.58</v>
+        <f t="shared" si="14"/>
+        <v>140003.791109847</v>
       </c>
       <c r="E104" s="12">
         <v>44350</v>
       </c>
       <c r="F104" s="11">
         <f t="shared" si="8"/>
-        <v>8124.42000000001</v>
+        <v>7714.20889015257</v>
       </c>
       <c r="G104" s="11">
         <f t="shared" si="13"/>
-        <v>5.82005275600784</v>
+        <v>5.50999999999998</v>
       </c>
       <c r="H104" s="11">
         <f t="shared" si="10"/>
-        <v>145177.3232</v>
+        <v>145603.942754241</v>
       </c>
       <c r="I104" s="11">
-        <f t="shared" si="12"/>
-        <v>2540.67680000002</v>
+        <f t="shared" si="15"/>
+        <v>2114.05724575868</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -4535,26 +4541,27 @@
         <v>105513</v>
       </c>
       <c r="D105" s="11">
-        <v>99709.81</v>
+        <f t="shared" si="14"/>
+        <v>100002.843332386</v>
       </c>
       <c r="E105" s="12">
         <v>44354</v>
       </c>
       <c r="F105" s="11">
         <f t="shared" si="8"/>
-        <v>5803.19</v>
+        <v>5510.15666761444</v>
       </c>
       <c r="G105" s="11">
         <f t="shared" si="13"/>
-        <v>5.8200792880861</v>
+        <v>5.51</v>
       </c>
       <c r="H105" s="11">
         <f t="shared" si="10"/>
-        <v>103698.2024</v>
+        <v>104002.957065681</v>
       </c>
       <c r="I105" s="11">
-        <f t="shared" si="12"/>
-        <v>1814.79760000001</v>
+        <f t="shared" si="15"/>
+        <v>1510.04293431902</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -4568,26 +4575,27 @@
         <v>12999</v>
       </c>
       <c r="D106" s="11">
-        <v>12284.04</v>
+        <f t="shared" si="14"/>
+        <v>12320.1592266136</v>
       </c>
       <c r="E106" s="12">
         <v>44356</v>
       </c>
       <c r="F106" s="11">
         <f t="shared" si="8"/>
-        <v>714.959999999999</v>
+        <v>678.840773386408</v>
       </c>
       <c r="G106" s="11">
         <f t="shared" si="13"/>
-        <v>5.82023503668174</v>
+        <v>5.50999999999999</v>
       </c>
       <c r="H106" s="11">
         <f t="shared" si="10"/>
-        <v>12775.4016</v>
+        <v>12812.9655956781</v>
       </c>
       <c r="I106" s="11">
-        <f t="shared" si="12"/>
-        <v>223.598399999999</v>
+        <f t="shared" si="15"/>
+        <v>186.034404321863</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -4601,26 +4609,27 @@
         <v>105513</v>
       </c>
       <c r="D107" s="11">
-        <v>99709.81</v>
+        <f t="shared" si="14"/>
+        <v>100002.843332386</v>
       </c>
       <c r="E107" s="12">
         <v>44356</v>
       </c>
       <c r="F107" s="11">
         <f t="shared" si="8"/>
-        <v>5803.19</v>
+        <v>5510.15666761444</v>
       </c>
       <c r="G107" s="11">
         <f t="shared" si="13"/>
-        <v>5.8200792880861</v>
+        <v>5.51</v>
       </c>
       <c r="H107" s="11">
         <f t="shared" si="10"/>
-        <v>103698.2024</v>
+        <v>104002.957065681</v>
       </c>
       <c r="I107" s="11">
-        <f t="shared" si="11"/>
-        <v>1814.79760000001</v>
+        <f t="shared" si="15"/>
+        <v>1510.04293431902</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -4652,173 +4661,311 @@
         <v>98799.636</v>
       </c>
       <c r="I108" s="11">
+        <f t="shared" si="15"/>
+        <v>1437.364</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="2">
+        <v>106</v>
+      </c>
+      <c r="B109" s="13">
+        <v>27110876</v>
+      </c>
+      <c r="C109" s="11">
+        <v>211026</v>
+      </c>
+      <c r="D109" s="11">
+        <v>200000</v>
+      </c>
+      <c r="E109" s="12">
+        <v>44362</v>
+      </c>
+      <c r="F109" s="11">
+        <f t="shared" si="8"/>
+        <v>11026</v>
+      </c>
+      <c r="G109" s="11">
+        <f t="shared" si="9"/>
+        <v>5.513</v>
+      </c>
+      <c r="H109" s="11">
+        <f t="shared" si="10"/>
+        <v>208000</v>
+      </c>
+      <c r="I109" s="11">
+        <f t="shared" si="15"/>
+        <v>3026</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="2">
+        <v>107</v>
+      </c>
+      <c r="B110" s="13">
+        <v>27136500</v>
+      </c>
+      <c r="C110" s="11">
+        <v>11501</v>
+      </c>
+      <c r="D110" s="11">
+        <v>10900</v>
+      </c>
+      <c r="E110" s="12">
+        <v>44362</v>
+      </c>
+      <c r="F110" s="11">
+        <f t="shared" si="8"/>
+        <v>601</v>
+      </c>
+      <c r="G110" s="11">
+        <f t="shared" si="9"/>
+        <v>5.51376146788991</v>
+      </c>
+      <c r="H110" s="11">
+        <f t="shared" si="10"/>
+        <v>11336</v>
+      </c>
+      <c r="I110" s="11">
+        <f t="shared" si="15"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" s="2">
+        <v>108</v>
+      </c>
+      <c r="B111" s="13">
+        <v>27148149</v>
+      </c>
+      <c r="C111" s="11">
+        <v>52757</v>
+      </c>
+      <c r="D111" s="11">
+        <v>50000</v>
+      </c>
+      <c r="E111" s="12">
+        <v>44364</v>
+      </c>
+      <c r="F111" s="11">
+        <f t="shared" si="8"/>
+        <v>2757</v>
+      </c>
+      <c r="G111" s="11">
+        <f t="shared" si="9"/>
+        <v>5.514</v>
+      </c>
+      <c r="H111" s="11">
+        <f t="shared" si="10"/>
+        <v>52000</v>
+      </c>
+      <c r="I111" s="11">
+        <f t="shared" si="15"/>
+        <v>757</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" s="2">
+        <v>109</v>
+      </c>
+      <c r="B112" s="13">
+        <v>26983848</v>
+      </c>
+      <c r="C112" s="11">
+        <v>65418</v>
+      </c>
+      <c r="D112" s="11">
+        <v>62000</v>
+      </c>
+      <c r="E112" s="12">
+        <v>44366</v>
+      </c>
+      <c r="F112" s="11">
+        <f t="shared" si="8"/>
+        <v>3418</v>
+      </c>
+      <c r="G112" s="11">
+        <f t="shared" si="9"/>
+        <v>5.51290322580645</v>
+      </c>
+      <c r="H112" s="11">
+        <f t="shared" si="10"/>
+        <v>64480</v>
+      </c>
+      <c r="I112" s="11">
+        <f t="shared" si="15"/>
+        <v>938</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" s="2">
+        <v>110</v>
+      </c>
+      <c r="B113" s="13">
+        <v>27165690</v>
+      </c>
+      <c r="C113" s="11">
+        <v>52757</v>
+      </c>
+      <c r="D113" s="11">
+        <v>50000</v>
+      </c>
+      <c r="E113" s="12">
+        <v>44367</v>
+      </c>
+      <c r="F113" s="11">
+        <f t="shared" si="8"/>
+        <v>2757</v>
+      </c>
+      <c r="G113" s="11">
+        <f t="shared" si="9"/>
+        <v>5.514</v>
+      </c>
+      <c r="H113" s="11">
+        <f t="shared" si="10"/>
+        <v>52000</v>
+      </c>
+      <c r="I113" s="11">
+        <f t="shared" si="15"/>
+        <v>757</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" s="2">
+        <v>111</v>
+      </c>
+      <c r="B114" s="13">
+        <v>27191195</v>
+      </c>
+      <c r="C114" s="11">
+        <v>105513</v>
+      </c>
+      <c r="D114" s="11">
+        <v>100000</v>
+      </c>
+      <c r="E114" s="12">
+        <v>44369</v>
+      </c>
+      <c r="F114" s="11">
+        <f t="shared" si="8"/>
+        <v>5513</v>
+      </c>
+      <c r="G114" s="11">
+        <f t="shared" si="9"/>
+        <v>5.513</v>
+      </c>
+      <c r="H114" s="11">
+        <f t="shared" si="10"/>
+        <v>104000</v>
+      </c>
+      <c r="I114" s="11">
+        <f t="shared" si="15"/>
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" s="2">
+        <v>112</v>
+      </c>
+      <c r="B115" s="13">
+        <v>27118347</v>
+      </c>
+      <c r="C115" s="11">
+        <v>263783</v>
+      </c>
+      <c r="D115" s="11">
+        <v>250000.4</v>
+      </c>
+      <c r="E115" s="12">
+        <v>44370</v>
+      </c>
+      <c r="F115" s="11">
+        <f t="shared" si="8"/>
+        <v>13782.6</v>
+      </c>
+      <c r="G115" s="11">
+        <f t="shared" si="9"/>
+        <v>5.51303117915012</v>
+      </c>
+      <c r="H115" s="11">
+        <f t="shared" si="10"/>
+        <v>260000.416</v>
+      </c>
+      <c r="I115" s="11">
+        <f t="shared" si="15"/>
+        <v>3782.584</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" s="2">
+        <v>113</v>
+      </c>
+      <c r="B116" s="13">
+        <v>27209917</v>
+      </c>
+      <c r="C116" s="11">
+        <v>126616</v>
+      </c>
+      <c r="D116" s="11">
+        <v>120000.19</v>
+      </c>
+      <c r="E116" s="12">
+        <v>44372</v>
+      </c>
+      <c r="F116" s="11">
+        <f t="shared" si="8"/>
+        <v>6615.81</v>
+      </c>
+      <c r="G116" s="11">
+        <f t="shared" si="9"/>
+        <v>5.51316627082007</v>
+      </c>
+      <c r="H116" s="11">
+        <f t="shared" si="10"/>
+        <v>124800.1976</v>
+      </c>
+      <c r="I116" s="11">
+        <f t="shared" si="15"/>
+        <v>1815.8024</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" s="2">
+        <v>114</v>
+      </c>
+      <c r="B117" s="13">
+        <v>27237989</v>
+      </c>
+      <c r="C117" s="11">
+        <v>211026</v>
+      </c>
+      <c r="D117" s="11">
+        <v>200000.32</v>
+      </c>
+      <c r="E117" s="12">
+        <v>44378</v>
+      </c>
+      <c r="F117" s="11">
+        <f t="shared" si="8"/>
+        <v>11025.68</v>
+      </c>
+      <c r="G117" s="11">
+        <f t="shared" si="9"/>
+        <v>5.51283117947011</v>
+      </c>
+      <c r="H117" s="11">
+        <f t="shared" si="10"/>
+        <v>208000.3328</v>
+      </c>
+      <c r="I117" s="11">
         <f t="shared" si="11"/>
-        <v>1437.364</v>
-      </c>
-    </row>
-    <row r="109" spans="6:9">
-      <c r="F109" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G109" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H109" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I109" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="110" spans="6:9">
-      <c r="F110" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G110" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H110" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I110" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="111" spans="6:9">
-      <c r="F111" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G111" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H111" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I111" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="112" spans="6:9">
-      <c r="F112" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G112" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H112" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I112" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="113" spans="6:9">
-      <c r="F113" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G113" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H113" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I113" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="114" spans="6:9">
-      <c r="F114" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G114" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H114" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I114" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="115" spans="6:9">
-      <c r="F115" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G115" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H115" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I115" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="116" spans="6:9">
-      <c r="F116" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G116" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H116" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I116" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="117" spans="6:9">
-      <c r="F117" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G117" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H117" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I117" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="118" spans="6:9">
+        <v>3025.6672</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9">
+      <c r="B118" s="13"/>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2"/>
       <c r="F118" s="11" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5342,1351 +5489,1351 @@
     </row>
     <row r="147" spans="6:9">
       <c r="F147" s="11" t="str">
-        <f t="shared" ref="F147:F210" si="14">IF(B147="","",C147-D147)</f>
+        <f t="shared" ref="F147:F210" si="16">IF(B147="","",C147-D147)</f>
         <v/>
       </c>
       <c r="G147" s="11" t="str">
-        <f t="shared" ref="G147:G210" si="15">IF(B147="","",F147/D147*100)</f>
+        <f t="shared" ref="G147:G210" si="17">IF(B147="","",F147/D147*100)</f>
         <v/>
       </c>
       <c r="H147" s="11" t="str">
-        <f t="shared" ref="H147:H210" si="16">IF(B147="","",D147*1.04)</f>
+        <f t="shared" ref="H147:H210" si="18">IF(B147="","",D147*1.04)</f>
         <v/>
       </c>
       <c r="I147" s="11" t="str">
-        <f t="shared" ref="I147:I210" si="17">IF(B147="","",C147-H147)</f>
+        <f t="shared" ref="I147:I210" si="19">IF(B147="","",C147-H147)</f>
         <v/>
       </c>
     </row>
     <row r="148" spans="6:9">
       <c r="F148" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G148" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H148" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I148" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="149" spans="6:9">
       <c r="F149" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G149" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H149" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I149" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="150" spans="6:9">
       <c r="F150" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G150" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H150" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I150" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="151" spans="6:9">
       <c r="F151" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G151" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H151" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I151" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="152" spans="6:9">
       <c r="F152" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G152" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H152" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I152" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="153" spans="6:9">
       <c r="F153" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G153" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H153" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I153" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="154" spans="6:9">
       <c r="F154" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G154" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H154" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I154" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="155" spans="6:9">
       <c r="F155" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G155" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H155" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I155" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="156" spans="6:9">
       <c r="F156" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G156" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H156" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I156" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="157" spans="6:9">
       <c r="F157" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G157" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H157" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I157" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="158" spans="6:9">
       <c r="F158" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G158" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H158" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I158" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="159" spans="6:9">
       <c r="F159" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G159" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H159" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I159" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="160" spans="6:9">
       <c r="F160" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G160" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H160" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I160" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="161" spans="6:9">
       <c r="F161" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G161" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H161" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I161" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="162" spans="6:9">
       <c r="F162" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G162" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H162" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I162" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="163" spans="6:9">
       <c r="F163" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G163" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H163" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I163" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="164" spans="6:9">
       <c r="F164" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G164" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H164" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I164" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="165" spans="6:9">
       <c r="F165" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G165" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H165" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I165" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="166" spans="6:9">
       <c r="F166" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G166" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H166" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I166" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="167" spans="6:9">
       <c r="F167" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G167" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H167" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I167" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="168" spans="6:9">
       <c r="F168" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G168" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H168" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I168" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="169" spans="6:9">
       <c r="F169" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G169" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H169" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I169" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="170" spans="6:9">
       <c r="F170" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G170" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H170" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I170" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="171" spans="6:9">
       <c r="F171" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G171" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H171" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I171" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="172" spans="6:9">
       <c r="F172" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G172" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H172" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I172" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="173" spans="6:9">
       <c r="F173" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G173" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H173" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I173" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="174" spans="6:9">
       <c r="F174" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G174" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H174" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I174" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="175" spans="6:9">
       <c r="F175" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G175" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H175" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I175" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="176" spans="6:9">
       <c r="F176" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G176" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H176" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I176" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="177" spans="6:9">
       <c r="F177" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G177" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H177" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I177" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="178" spans="6:9">
       <c r="F178" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G178" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H178" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I178" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="179" spans="6:9">
       <c r="F179" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G179" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H179" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I179" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="180" spans="6:9">
       <c r="F180" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G180" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H180" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I180" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="181" spans="6:9">
       <c r="F181" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G181" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H181" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I181" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="182" spans="6:9">
       <c r="F182" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G182" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H182" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I182" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="183" spans="6:9">
       <c r="F183" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G183" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H183" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I183" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="184" spans="6:9">
       <c r="F184" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G184" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H184" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I184" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="185" spans="6:9">
       <c r="F185" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G185" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H185" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I185" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="186" spans="6:9">
       <c r="F186" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G186" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H186" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I186" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="187" spans="6:9">
       <c r="F187" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G187" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H187" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I187" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="188" spans="6:9">
       <c r="F188" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G188" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H188" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I188" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="189" spans="6:9">
       <c r="F189" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G189" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H189" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I189" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="190" spans="6:9">
       <c r="F190" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G190" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H190" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I190" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="191" spans="6:9">
       <c r="F191" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G191" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H191" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I191" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="192" spans="6:9">
       <c r="F192" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G192" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H192" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I192" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="193" spans="6:9">
       <c r="F193" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G193" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H193" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I193" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="194" spans="6:9">
       <c r="F194" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G194" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H194" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I194" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="195" spans="6:9">
       <c r="F195" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G195" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H195" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I195" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="196" spans="6:9">
       <c r="F196" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G196" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H196" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I196" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="197" spans="6:9">
       <c r="F197" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G197" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H197" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I197" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="198" spans="6:9">
       <c r="F198" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G198" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H198" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I198" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="199" spans="6:9">
       <c r="F199" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G199" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H199" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I199" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="200" spans="6:9">
       <c r="F200" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G200" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H200" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I200" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="201" spans="6:9">
       <c r="F201" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G201" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H201" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I201" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="202" spans="6:9">
       <c r="F202" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G202" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H202" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I202" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="203" spans="6:9">
       <c r="F203" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G203" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H203" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I203" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="204" spans="6:9">
       <c r="F204" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G204" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H204" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I204" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="205" spans="6:9">
       <c r="F205" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G205" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H205" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I205" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="206" spans="6:9">
       <c r="F206" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G206" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H206" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I206" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="207" spans="6:9">
       <c r="F207" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G207" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H207" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I207" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="208" spans="6:9">
       <c r="F208" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G208" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H208" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I208" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="209" spans="6:9">
       <c r="F209" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G209" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H209" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I209" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="210" spans="6:9">
       <c r="F210" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G210" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H210" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I210" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="211" spans="6:9">
       <c r="F211" s="11" t="str">
-        <f t="shared" ref="F211:F221" si="18">IF(B211="","",C211-D211)</f>
+        <f t="shared" ref="F211:F221" si="20">IF(B211="","",C211-D211)</f>
         <v/>
       </c>
       <c r="G211" s="11" t="str">
-        <f t="shared" ref="G211:G221" si="19">IF(B211="","",F211/D211*100)</f>
+        <f t="shared" ref="G211:G221" si="21">IF(B211="","",F211/D211*100)</f>
         <v/>
       </c>
       <c r="H211" s="11" t="str">
-        <f t="shared" ref="H211:H221" si="20">IF(B211="","",D211*1.04)</f>
+        <f t="shared" ref="H211:H221" si="22">IF(B211="","",D211*1.04)</f>
         <v/>
       </c>
       <c r="I211" s="11" t="str">
-        <f t="shared" ref="I211:I221" si="21">IF(B211="","",C211-H211)</f>
+        <f t="shared" ref="I211:I221" si="23">IF(B211="","",C211-H211)</f>
         <v/>
       </c>
     </row>
     <row r="212" spans="6:9">
       <c r="F212" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="G212" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="H212" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="I212" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="213" spans="6:9">
       <c r="F213" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="G213" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="H213" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="I213" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="214" spans="6:9">
       <c r="F214" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="G214" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="H214" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="I214" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="215" spans="6:9">
       <c r="F215" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="G215" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="H215" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="I215" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="216" spans="6:9">
       <c r="F216" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="G216" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="H216" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="I216" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="217" spans="6:9">
       <c r="F217" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="G217" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="H217" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="I217" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="218" spans="6:9">
       <c r="F218" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="G218" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="H218" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="I218" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="219" spans="6:9">
       <c r="F219" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="G219" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="H219" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="I219" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="220" spans="6:9">
       <c r="F220" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="G220" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="H220" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="I220" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="221" spans="6:9">
       <c r="F221" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="G221" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="H221" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="I221" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>

--- a/WalletFundAddedStatement.xlsx
+++ b/WalletFundAddedStatement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7965"/>
+    <workbookView windowWidth="19815" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,11 +51,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="[$-409]dd\-mmm\-yy;@"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="[$-409]dd\-mmm\-yy;@"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -93,16 +93,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,23 +123,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,28 +139,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -190,32 +147,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,6 +165,73 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,13 +270,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,43 +420,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,55 +432,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,61 +450,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,21 +465,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -490,15 +475,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,6 +498,41 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -530,8 +541,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,26 +561,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -584,130 +584,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -748,7 +748,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1076,9 +1076,9 @@
   <dimension ref="A1:I221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I118" sqref="I118"/>
+      <selection pane="bottomLeft" activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1131,31 +1131,31 @@
       </c>
       <c r="C2" s="7">
         <f>SUM(C3:C221)</f>
-        <v>9834432</v>
+        <v>10029631</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(D3:D221)</f>
-        <v>9316786.03678514</v>
+        <v>9501785.83678514</v>
       </c>
       <c r="E2" s="8">
         <f>C2-D2</f>
-        <v>517645.963214859</v>
+        <v>527845.163214859</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F3:F221)</f>
-        <v>517645.963214861</v>
+        <v>527845.163214861</v>
       </c>
       <c r="G2" s="10">
         <f>C2-H2</f>
-        <v>144974.521743452</v>
+        <v>147773.729743453</v>
       </c>
       <c r="H2" s="7">
         <f>SUM(H3:H221)</f>
-        <v>9689457.47825655</v>
+        <v>9881857.27025655</v>
       </c>
       <c r="I2" s="10">
         <f>SUM(I3:I221)</f>
-        <v>144974.521743455</v>
+        <v>147773.729743455</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:9">
@@ -4345,19 +4345,19 @@
       </c>
       <c r="F99" s="11">
         <f t="shared" si="8"/>
-        <v>2204.05222253814</v>
+        <v>2204.0522225381</v>
       </c>
       <c r="G99" s="11">
         <f t="shared" si="13"/>
-        <v>5.50999999999999</v>
+        <v>5.50999999999987</v>
       </c>
       <c r="H99" s="11">
         <f t="shared" si="10"/>
-        <v>41600.9856885603</v>
+        <v>41600.9856885604</v>
       </c>
       <c r="I99" s="11">
         <f t="shared" si="12"/>
-        <v>604.014311439671</v>
+        <v>604.01431143962</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -4379,11 +4379,11 @@
       </c>
       <c r="F100" s="11">
         <f t="shared" si="8"/>
-        <v>3306.10444507629</v>
+        <v>3306.1044450763</v>
       </c>
       <c r="G100" s="11">
         <f t="shared" si="13"/>
-        <v>5.50999999999999</v>
+        <v>5.51000000000001</v>
       </c>
       <c r="H100" s="11">
         <f t="shared" si="10"/>
@@ -4391,7 +4391,7 @@
       </c>
       <c r="I100" s="11">
         <f t="shared" si="12"/>
-        <v>906.028622879341</v>
+        <v>906.028622879348</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -4413,11 +4413,11 @@
       </c>
       <c r="F101" s="11">
         <f t="shared" si="8"/>
-        <v>3306.10444507629</v>
+        <v>3306.1044450763</v>
       </c>
       <c r="G101" s="11">
         <f t="shared" si="13"/>
-        <v>5.50999999999999</v>
+        <v>5.51000000000001</v>
       </c>
       <c r="H101" s="11">
         <f t="shared" si="10"/>
@@ -4425,7 +4425,7 @@
       </c>
       <c r="I101" s="11">
         <f t="shared" si="12"/>
-        <v>906.028622879341</v>
+        <v>906.028622879348</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -4447,11 +4447,11 @@
       </c>
       <c r="F102" s="11">
         <f t="shared" si="8"/>
-        <v>5234.63055634536</v>
+        <v>5234.63055634539</v>
       </c>
       <c r="G102" s="11">
         <f t="shared" si="13"/>
-        <v>5.50999999999999</v>
+        <v>5.51000000000003</v>
       </c>
       <c r="H102" s="11">
         <f t="shared" si="10"/>
@@ -4459,7 +4459,7 @@
       </c>
       <c r="I102" s="11">
         <f t="shared" ref="I102:I116" si="15">IF(B102="","",C102-H102)</f>
-        <v>1434.53577859918</v>
+        <v>1434.53577859921</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -4481,19 +4481,19 @@
       </c>
       <c r="F103" s="11">
         <f t="shared" si="8"/>
-        <v>3065.82854705715</v>
+        <v>3065.8285470572</v>
       </c>
       <c r="G103" s="11">
         <f t="shared" si="13"/>
-        <v>5.51</v>
+        <v>5.51000000000009</v>
       </c>
       <c r="H103" s="11">
         <f t="shared" si="10"/>
-        <v>57866.8183110606</v>
+        <v>57866.8183110605</v>
       </c>
       <c r="I103" s="11">
         <f t="shared" si="15"/>
-        <v>840.181688939432</v>
+        <v>840.18168893949</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -4515,11 +4515,11 @@
       </c>
       <c r="F104" s="11">
         <f t="shared" si="8"/>
-        <v>7714.20889015257</v>
+        <v>7714.20889015301</v>
       </c>
       <c r="G104" s="11">
         <f t="shared" si="13"/>
-        <v>5.50999999999998</v>
+        <v>5.51000000000031</v>
       </c>
       <c r="H104" s="11">
         <f t="shared" si="10"/>
@@ -4527,7 +4527,7 @@
       </c>
       <c r="I104" s="11">
         <f t="shared" si="15"/>
-        <v>2114.05724575868</v>
+        <v>2114.05724575912</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -4549,11 +4549,11 @@
       </c>
       <c r="F105" s="11">
         <f t="shared" si="8"/>
-        <v>5510.15666761444</v>
+        <v>5510.15666761401</v>
       </c>
       <c r="G105" s="11">
         <f t="shared" si="13"/>
-        <v>5.51</v>
+        <v>5.50999999999954</v>
       </c>
       <c r="H105" s="11">
         <f t="shared" si="10"/>
@@ -4561,7 +4561,7 @@
       </c>
       <c r="I105" s="11">
         <f t="shared" si="15"/>
-        <v>1510.04293431902</v>
+        <v>1510.04293431857</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -4583,11 +4583,11 @@
       </c>
       <c r="F106" s="11">
         <f t="shared" si="8"/>
-        <v>678.840773386408</v>
+        <v>678.840773386401</v>
       </c>
       <c r="G106" s="11">
         <f t="shared" si="13"/>
-        <v>5.50999999999999</v>
+        <v>5.50999999999993</v>
       </c>
       <c r="H106" s="11">
         <f t="shared" si="10"/>
@@ -4595,7 +4595,7 @@
       </c>
       <c r="I106" s="11">
         <f t="shared" si="15"/>
-        <v>186.034404321863</v>
+        <v>186.034404321856</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -4617,11 +4617,11 @@
       </c>
       <c r="F107" s="11">
         <f t="shared" si="8"/>
-        <v>5510.15666761444</v>
+        <v>5510.15666761401</v>
       </c>
       <c r="G107" s="11">
         <f t="shared" si="13"/>
-        <v>5.51</v>
+        <v>5.50999999999954</v>
       </c>
       <c r="H107" s="11">
         <f t="shared" si="10"/>
@@ -4629,7 +4629,7 @@
       </c>
       <c r="I107" s="11">
         <f t="shared" si="15"/>
-        <v>1510.04293431902</v>
+        <v>1510.04293431857</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -4892,7 +4892,7 @@
         <v>260000.416</v>
       </c>
       <c r="I115" s="11">
-        <f t="shared" si="15"/>
+        <f>IF(B115="","",C115-H115)</f>
         <v>3782.584</v>
       </c>
     </row>
@@ -4925,7 +4925,7 @@
         <v>124800.1976</v>
       </c>
       <c r="I116" s="11">
-        <f t="shared" si="15"/>
+        <f>IF(B116="","",C116-H116)</f>
         <v>1815.8024</v>
       </c>
     </row>
@@ -4958,29 +4958,41 @@
         <v>208000.3328</v>
       </c>
       <c r="I117" s="11">
-        <f t="shared" si="11"/>
+        <f>IF(B117="","",C117-H117)</f>
         <v>3025.6672</v>
       </c>
     </row>
-    <row r="118" spans="2:9">
-      <c r="B118" s="13"/>
-      <c r="C118" s="2"/>
-      <c r="D118" s="2"/>
-      <c r="F118" s="11" t="str">
+    <row r="118" spans="1:9">
+      <c r="A118" s="2">
+        <v>115</v>
+      </c>
+      <c r="B118" s="13">
+        <v>27275429</v>
+      </c>
+      <c r="C118" s="11">
+        <v>195199</v>
+      </c>
+      <c r="D118" s="11">
+        <v>184999.8</v>
+      </c>
+      <c r="E118" s="12">
+        <v>44383</v>
+      </c>
+      <c r="F118" s="11">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G118" s="11" t="str">
+        <v>10199.2</v>
+      </c>
+      <c r="G118" s="11">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H118" s="11" t="str">
+        <v>5.51308704117519</v>
+      </c>
+      <c r="H118" s="11">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I118" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
+        <v>192399.792</v>
+      </c>
+      <c r="I118" s="11">
+        <f>IF(B118="","",C118-H118)</f>
+        <v>2799.20800000001</v>
       </c>
     </row>
     <row r="119" spans="6:9">
